--- a/capiq_data/in_process_data/IQ295688.xlsx
+++ b/capiq_data/in_process_data/IQ295688.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B6AFAD-1783-48EA-8EAD-BFCE9C9E8164}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A993AB-0888-4A7E-BF39-0868341B139C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"a4ff8561-f1f6-4969-9bc1-e0afde61cd4e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"6ee50da9-51f4-4557-b104-25e5ce71f8be"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>46.375999999999998</v>
+        <v>-26.428999999999998</v>
       </c>
       <c r="D2">
-        <v>753.85799999999995</v>
+        <v>674.77700000000004</v>
       </c>
       <c r="E2">
-        <v>516.90499999999997</v>
+        <v>468.08100000000002</v>
       </c>
       <c r="F2">
-        <v>232.22800000000001</v>
+        <v>159.59</v>
       </c>
       <c r="G2">
-        <v>1069.297</v>
+        <v>1091.8019999999999</v>
       </c>
       <c r="H2">
-        <v>3973.5329999999999</v>
+        <v>2644.0250000000001</v>
       </c>
       <c r="I2">
-        <v>262.35700000000003</v>
+        <v>250.08799999999999</v>
       </c>
       <c r="J2">
-        <v>702.52099999999996</v>
+        <v>781.83399999999995</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>108.14100000000001</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>546.79600000000005</v>
+        <v>648.79200000000003</v>
       </c>
       <c r="O2">
-        <v>1768.501</v>
+        <v>1633.434</v>
       </c>
       <c r="P2">
-        <v>707.47199999999998</v>
+        <v>913.97400000000005</v>
       </c>
       <c r="Q2">
-        <v>-10.939</v>
+        <v>-19.443000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>14300</v>
+        <v>13100</v>
       </c>
       <c r="T2">
-        <v>2205.0320000000002</v>
+        <v>1010.591</v>
       </c>
       <c r="U2">
-        <v>46.055999999999997</v>
+        <v>34.944000000000003</v>
       </c>
       <c r="V2">
-        <v>21.132999999999999</v>
+        <v>152.05199999999999</v>
       </c>
       <c r="W2">
-        <v>-18.881</v>
+        <v>-8.2710000000000008</v>
       </c>
       <c r="X2">
-        <v>-13.013999999999999</v>
+        <v>-141.28399999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>46.375999999999998</v>
+        <v>-26.428999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>50.540999999999997</v>
+        <v>20.562999999999999</v>
       </c>
       <c r="D3">
-        <v>790.27300000000002</v>
+        <v>664.16899999999998</v>
       </c>
       <c r="E3">
-        <v>625.85599999999999</v>
+        <v>508.34399999999999</v>
       </c>
       <c r="F3">
-        <v>249.059</v>
+        <v>156.773</v>
       </c>
       <c r="G3">
-        <v>1209.077</v>
+        <v>1125.721</v>
       </c>
       <c r="H3">
-        <v>4162.6869999999999</v>
+        <v>2670.9839999999999</v>
       </c>
       <c r="I3">
-        <v>256.49200000000002</v>
+        <v>224.29300000000001</v>
       </c>
       <c r="J3">
-        <v>815.92100000000005</v>
+        <v>782.173</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>170.11099999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-150</v>
+        <v>-1.1890000000000001</v>
       </c>
       <c r="N3">
-        <v>546.36099999999999</v>
+        <v>662.95500000000004</v>
       </c>
       <c r="O3">
-        <v>1880.2429999999999</v>
+        <v>1647.549</v>
       </c>
       <c r="P3">
-        <v>822.02700000000004</v>
+        <v>976.85299999999995</v>
       </c>
       <c r="Q3">
-        <v>11.077999999999999</v>
+        <v>-1.9410000000000001</v>
       </c>
       <c r="R3">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2282.444</v>
+        <v>1023.4349999999999</v>
       </c>
       <c r="U3">
-        <v>57.134</v>
+        <v>33.003</v>
       </c>
       <c r="V3">
-        <v>-48.18</v>
+        <v>-40.097000000000001</v>
       </c>
       <c r="W3">
-        <v>-19.844000000000001</v>
+        <v>-8.3309999999999995</v>
       </c>
       <c r="X3">
-        <v>80.915000000000006</v>
+        <v>55.16</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>50.540999999999997</v>
+        <v>20.562999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>66.712000000000003</v>
+        <v>28.556000000000001</v>
       </c>
       <c r="D4">
-        <v>910.17499999999995</v>
+        <v>689.42700000000002</v>
       </c>
       <c r="E4">
-        <v>635.80700000000002</v>
+        <v>475.81299999999999</v>
       </c>
       <c r="F4">
-        <v>287.73599999999999</v>
+        <v>158.13300000000001</v>
       </c>
       <c r="G4">
-        <v>1334.6389999999999</v>
+        <v>1053.989</v>
       </c>
       <c r="H4">
-        <v>5052.3119999999999</v>
+        <v>2600.4160000000002</v>
       </c>
       <c r="I4">
-        <v>315.40300000000002</v>
+        <v>230.286</v>
       </c>
       <c r="J4">
-        <v>1396.6669999999999</v>
+        <v>780.88800000000003</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>98.828000000000003</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>711.40200000000004</v>
+        <v>578.30799999999999</v>
       </c>
       <c r="O4">
-        <v>2685.4580000000001</v>
+        <v>1558.539</v>
       </c>
       <c r="P4">
-        <v>1419.4069999999999</v>
+        <v>884.17899999999997</v>
       </c>
       <c r="Q4">
-        <v>11.837999999999999</v>
+        <v>-5.3140000000000001</v>
       </c>
       <c r="R4">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2366.8539999999998</v>
+        <v>1041.877</v>
       </c>
       <c r="U4">
-        <v>68.971999999999994</v>
+        <v>27.689</v>
       </c>
       <c r="V4">
-        <v>200.791</v>
+        <v>118.622</v>
       </c>
       <c r="W4">
-        <v>-19.895</v>
+        <v>-8.3339999999999996</v>
       </c>
       <c r="X4">
-        <v>557.40700000000004</v>
+        <v>-98.033000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-16.698</v>
       </c>
       <c r="AA4">
-        <v>66.712000000000003</v>
+        <v>28.556000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>51.091999999999999</v>
+        <v>24.670999999999999</v>
       </c>
       <c r="D5">
-        <v>890.54600000000005</v>
+        <v>636.17399999999998</v>
       </c>
       <c r="E5">
-        <v>612.28800000000001</v>
+        <v>460.73200000000003</v>
       </c>
       <c r="F5">
-        <v>272.06200000000001</v>
+        <v>149.14099999999999</v>
       </c>
       <c r="G5">
-        <v>1278.248</v>
+        <v>1045.5840000000001</v>
       </c>
       <c r="H5">
-        <v>4882.4430000000002</v>
+        <v>2591.5770000000002</v>
       </c>
       <c r="I5">
-        <v>281.44799999999998</v>
+        <v>207.721</v>
       </c>
       <c r="J5">
-        <v>1327.954</v>
+        <v>781.88499999999999</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>61.89</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>717.60199999999998</v>
+        <v>531.24699999999996</v>
       </c>
       <c r="O5">
-        <v>2584.3270000000002</v>
+        <v>1524.7809999999999</v>
       </c>
       <c r="P5">
-        <v>1358.8530000000001</v>
+        <v>848.14599999999996</v>
       </c>
       <c r="Q5">
-        <v>-16.306999999999999</v>
+        <v>5.1269999999999998</v>
       </c>
       <c r="R5">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2298.116</v>
+        <v>1066.796</v>
       </c>
       <c r="U5">
-        <v>52.664999999999999</v>
+        <v>32.816000000000003</v>
       </c>
       <c r="V5">
-        <v>87.947999999999993</v>
+        <v>68.731999999999999</v>
       </c>
       <c r="W5">
-        <v>-19.93</v>
+        <v>-8.8339999999999996</v>
       </c>
       <c r="X5">
-        <v>-81.421999999999997</v>
+        <v>-49.435000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-3.8660000000000001</v>
       </c>
       <c r="AA5">
-        <v>51.091999999999999</v>
+        <v>24.670999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-175.79499999999999</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>865.69200000000001</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>623.90499999999997</v>
+        <v>398.57900000000001</v>
       </c>
       <c r="F6">
-        <v>264.86500000000001</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1237.835</v>
+        <v>835.60299999999995</v>
       </c>
       <c r="H6">
-        <v>4586.3130000000001</v>
+        <v>2372.1979999999999</v>
       </c>
       <c r="I6">
-        <v>294.858</v>
+        <v>179.149</v>
       </c>
       <c r="J6">
-        <v>1304.2249999999999</v>
+        <v>714.97699999999998</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>641.84100000000001</v>
+        <v>428.43299999999999</v>
       </c>
       <c r="O6">
-        <v>2538.9209999999998</v>
+        <v>1357.1959999999999</v>
       </c>
       <c r="P6">
-        <v>1309.087</v>
+        <v>723.70600000000002</v>
       </c>
       <c r="Q6">
-        <v>-2.5880000000000001</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>15300</v>
+        <v>11700</v>
       </c>
       <c r="T6">
-        <v>2047.3920000000001</v>
+        <v>1015.002</v>
       </c>
       <c r="U6">
-        <v>50.076999999999998</v>
+        <v>39.844000000000001</v>
       </c>
       <c r="V6">
-        <v>79.667000000000002</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-19.867999999999999</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-53.347000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>-175.79499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>21.437999999999999</v>
       </c>
       <c r="D7">
-        <v>858</v>
+        <v>603.06299999999999</v>
       </c>
       <c r="E7">
-        <v>680.26</v>
+        <v>447.483</v>
       </c>
       <c r="F7">
-        <v>281</v>
+        <v>137.011</v>
       </c>
       <c r="G7">
-        <v>1389.2070000000001</v>
+        <v>854.64400000000001</v>
       </c>
       <c r="H7">
-        <v>4778.2060000000001</v>
+        <v>2375.6979999999999</v>
       </c>
       <c r="I7">
-        <v>293.39800000000002</v>
+        <v>197.40700000000001</v>
       </c>
       <c r="J7">
-        <v>1380.039</v>
+        <v>689.13599999999997</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-13</v>
+        <v>-78.522999999999996</v>
       </c>
       <c r="N7">
-        <v>659.32299999999998</v>
+        <v>444.14600000000002</v>
       </c>
       <c r="O7">
-        <v>2634.5990000000002</v>
+        <v>1348.211</v>
       </c>
       <c r="P7">
-        <v>1415.49</v>
+        <v>695.10799999999995</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>-18.898</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2143.607</v>
+        <v>1027.4870000000001</v>
       </c>
       <c r="U7">
-        <v>55.438000000000002</v>
+        <v>20.946000000000002</v>
       </c>
       <c r="V7">
-        <v>-68</v>
+        <v>21.771000000000001</v>
       </c>
       <c r="W7">
-        <v>-22</v>
+        <v>-8.8510000000000009</v>
       </c>
       <c r="X7">
-        <v>90</v>
+        <v>-35.173999999999999</v>
       </c>
       <c r="Y7">
-        <v>15.054</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-2.081</v>
       </c>
       <c r="AA7">
-        <v>62</v>
+        <v>21.437999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>72.5</v>
+        <v>42.975999999999999</v>
       </c>
       <c r="D8">
-        <v>941.5</v>
+        <v>708.11599999999999</v>
       </c>
       <c r="E8">
-        <v>572.14400000000001</v>
+        <v>450.70100000000002</v>
       </c>
       <c r="F8">
-        <v>312.10000000000002</v>
+        <v>175.98</v>
       </c>
       <c r="G8">
-        <v>1276.0250000000001</v>
+        <v>876.32799999999997</v>
       </c>
       <c r="H8">
-        <v>4586.2690000000002</v>
+        <v>2400.8290000000002</v>
       </c>
       <c r="I8">
-        <v>288.26499999999999</v>
+        <v>206.15899999999999</v>
       </c>
       <c r="J8">
-        <v>1219.7080000000001</v>
+        <v>638.55399999999997</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>661.71600000000001</v>
+        <v>462.483</v>
       </c>
       <c r="O8">
-        <v>2468.3969999999999</v>
+        <v>1322.692</v>
       </c>
       <c r="P8">
-        <v>1235.2090000000001</v>
+        <v>644.64300000000003</v>
       </c>
       <c r="Q8">
-        <v>5.5</v>
+        <v>8.343</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2117.8719999999998</v>
+        <v>1078.1369999999999</v>
       </c>
       <c r="U8">
-        <v>60.597999999999999</v>
+        <v>29.289000000000001</v>
       </c>
       <c r="V8">
-        <v>234.8</v>
+        <v>80.688000000000002</v>
       </c>
       <c r="W8">
-        <v>-22.3</v>
+        <v>-8.8620000000000001</v>
       </c>
       <c r="X8">
-        <v>-188.1</v>
+        <v>-61.466000000000001</v>
       </c>
       <c r="Y8">
-        <v>14.086</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-2.0880000000000001</v>
       </c>
       <c r="AA8">
-        <v>72.7</v>
+        <v>42.975999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>31.4</v>
+        <v>37.402999999999999</v>
       </c>
       <c r="D9">
-        <v>865.5</v>
+        <v>629.30100000000004</v>
       </c>
       <c r="E9">
-        <v>1319.5609999999999</v>
+        <v>415.01900000000001</v>
       </c>
       <c r="F9">
-        <v>278.10000000000002</v>
+        <v>148.96899999999999</v>
       </c>
       <c r="G9">
-        <v>3740.4459999999999</v>
+        <v>834.95100000000002</v>
       </c>
       <c r="H9">
-        <v>11972.334999999999</v>
+        <v>2354.8980000000001</v>
       </c>
       <c r="I9">
-        <v>602.70699999999999</v>
+        <v>188.87200000000001</v>
       </c>
       <c r="J9">
-        <v>1465.8610000000001</v>
+        <v>559.21799999999996</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2131.9490000000001</v>
+        <v>470.14699999999999</v>
       </c>
       <c r="O9">
-        <v>4906.0940000000001</v>
+        <v>1254.623</v>
       </c>
       <c r="P9">
-        <v>1996.761</v>
+        <v>566.50199999999995</v>
       </c>
       <c r="Q9">
-        <v>582</v>
+        <v>10.302</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7066.241</v>
+        <v>1100.2750000000001</v>
       </c>
       <c r="U9">
-        <v>642.57000000000005</v>
+        <v>39.591000000000001</v>
       </c>
       <c r="V9">
-        <v>80.599999999999994</v>
+        <v>118.449</v>
       </c>
       <c r="W9">
-        <v>-21.8</v>
+        <v>-9.3539999999999992</v>
       </c>
       <c r="X9">
-        <v>-173.3</v>
+        <v>-96.052000000000007</v>
       </c>
       <c r="Y9">
-        <v>29.507999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-5.2789999999999999</v>
       </c>
       <c r="AA9">
-        <v>31.4</v>
+        <v>37.402999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-273.10000000000002</v>
+        <v>28.085000000000001</v>
       </c>
       <c r="D10">
-        <v>1750.9</v>
+        <v>640.303</v>
       </c>
       <c r="E10">
-        <v>1399</v>
+        <v>403.79300000000001</v>
       </c>
       <c r="F10">
-        <v>578.29999999999995</v>
+        <v>153.74700000000001</v>
       </c>
       <c r="G10">
-        <v>3204.3</v>
+        <v>810.80799999999999</v>
       </c>
       <c r="H10">
-        <v>11882.7</v>
+        <v>2514.4499999999998</v>
       </c>
       <c r="I10">
-        <v>567</v>
+        <v>171.709</v>
       </c>
       <c r="J10">
-        <v>2454.3000000000002</v>
+        <v>673.91099999999994</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,134 +1556,134 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1645.1</v>
+        <v>476.2</v>
       </c>
       <c r="O10">
-        <v>5395.2</v>
+        <v>1408.7260000000001</v>
       </c>
       <c r="P10">
-        <v>2457.4</v>
+        <v>735.08500000000004</v>
       </c>
       <c r="Q10">
-        <v>-381.3</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>29700</v>
+        <v>11900</v>
       </c>
       <c r="T10">
-        <v>6487.5</v>
+        <v>1105.7239999999999</v>
       </c>
       <c r="U10">
-        <v>261.3</v>
+        <v>39.648000000000003</v>
       </c>
       <c r="V10">
-        <v>-179.4</v>
+        <v>49.886000000000003</v>
       </c>
       <c r="W10">
-        <v>-46.3</v>
+        <v>-9.3529999999999998</v>
       </c>
       <c r="X10">
-        <v>39.1</v>
+        <v>154.10499999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AA10">
-        <v>-273.10000000000002</v>
+        <v>28.085000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>51.7</v>
+        <v>27.849</v>
       </c>
       <c r="D11">
-        <v>1774.5</v>
+        <v>637.51599999999996</v>
       </c>
       <c r="E11">
-        <v>1542</v>
+        <v>438.642</v>
       </c>
       <c r="F11">
-        <v>600.6</v>
+        <v>155.291</v>
       </c>
       <c r="G11">
-        <v>3290</v>
+        <v>869.67499999999995</v>
       </c>
       <c r="H11">
-        <v>11721</v>
+        <v>2578.1869999999999</v>
       </c>
       <c r="I11">
-        <v>580</v>
+        <v>182.36</v>
       </c>
       <c r="J11">
-        <v>2573</v>
+        <v>719.77</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.70499999999999996</v>
       </c>
       <c r="M11">
-        <v>-1.7</v>
+        <v>-160.642</v>
       </c>
       <c r="N11">
-        <v>1483</v>
+        <v>473.26100000000002</v>
       </c>
       <c r="O11">
-        <v>5378</v>
+        <v>1452.2049999999999</v>
       </c>
       <c r="P11">
-        <v>2598</v>
+        <v>777.80799999999999</v>
       </c>
       <c r="Q11">
-        <v>-46.8</v>
+        <v>4.9560000000000004</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6343</v>
+        <v>1125.982</v>
       </c>
       <c r="U11">
-        <v>215</v>
+        <v>44.603999999999999</v>
       </c>
       <c r="V11">
-        <v>19.899999999999999</v>
+        <v>-2.4009999999999998</v>
       </c>
       <c r="W11">
-        <v>-47.2</v>
+        <v>-9.3759999999999994</v>
       </c>
       <c r="X11">
-        <v>-38.200000000000003</v>
+        <v>33.893999999999998</v>
       </c>
       <c r="Y11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="AA11">
-        <v>51.7</v>
+        <v>27.849</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -1575,25 +1695,25 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1439.9</v>
+        <v>442.36599999999999</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3216.5</v>
+        <v>901.58600000000001</v>
       </c>
       <c r="H12">
-        <v>11666.6</v>
+        <v>2627.5210000000002</v>
       </c>
       <c r="I12">
-        <v>593.9</v>
+        <v>214.21299999999999</v>
       </c>
       <c r="J12">
-        <v>2717.1</v>
+        <v>669.68700000000001</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,28 +1722,28 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1686.8</v>
+        <v>515.13400000000001</v>
       </c>
       <c r="O12">
-        <v>5723.7</v>
+        <v>1455.9780000000001</v>
       </c>
       <c r="P12">
-        <v>2740.3</v>
+        <v>728.53200000000004</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>5942.9</v>
+        <v>1171.5429999999999</v>
       </c>
       <c r="U12">
-        <v>253.1</v>
+        <v>45.465000000000003</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1635,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -1646,37 +1766,37 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>38.375</v>
       </c>
       <c r="D13">
-        <v>1713.3</v>
+        <v>416.98599999999999</v>
       </c>
       <c r="E13">
-        <v>1441.9</v>
+        <v>420.267</v>
       </c>
       <c r="F13">
-        <v>614.70000000000005</v>
+        <v>110.41500000000001</v>
       </c>
       <c r="G13">
-        <v>3211.3</v>
+        <v>860.11699999999996</v>
       </c>
       <c r="H13">
-        <v>11804.2</v>
+        <v>2587.489</v>
       </c>
       <c r="I13">
-        <v>579.4</v>
+        <v>180.14699999999999</v>
       </c>
       <c r="J13">
-        <v>2551.6999999999998</v>
+        <v>558.61</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1678.4</v>
+        <v>544.91</v>
       </c>
       <c r="O13">
-        <v>5602.5</v>
+        <v>1391.1849999999999</v>
       </c>
       <c r="P13">
-        <v>2573.6999999999998</v>
+        <v>662.73199999999997</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>4.9630000000000001</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>6201.7</v>
+        <v>1196.3040000000001</v>
       </c>
       <c r="U13">
-        <v>237.7</v>
+        <v>50.381</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>100.67700000000001</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-10.368</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-73.328999999999994</v>
       </c>
       <c r="Y13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AA13">
-        <v>172.8</v>
+        <v>38.375</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>158.19999999999999</v>
+        <v>31.241</v>
       </c>
       <c r="D14">
-        <v>1831</v>
+        <v>404.67700000000002</v>
       </c>
       <c r="E14">
-        <v>1376.6</v>
+        <v>251.47499999999999</v>
       </c>
       <c r="F14">
-        <v>630.5</v>
+        <v>113.49299999999999</v>
       </c>
       <c r="G14">
-        <v>3232.1</v>
+        <v>829.45</v>
       </c>
       <c r="H14">
-        <v>11743.3</v>
+        <v>2780.6770000000001</v>
       </c>
       <c r="I14">
-        <v>576.9</v>
+        <v>93.043000000000006</v>
       </c>
       <c r="J14">
-        <v>2528.9</v>
+        <v>732.86199999999997</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1610.2</v>
+        <v>497.45100000000002</v>
       </c>
       <c r="O14">
-        <v>5525.6</v>
+        <v>1519.1990000000001</v>
       </c>
       <c r="P14">
-        <v>2550.4</v>
+        <v>806.49300000000005</v>
       </c>
       <c r="Q14">
-        <v>36.799999999999997</v>
+        <v>-2.3919999999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>28600</v>
+        <v>12300</v>
       </c>
       <c r="T14">
-        <v>6217.7</v>
+        <v>1261.4780000000001</v>
       </c>
       <c r="U14">
-        <v>256</v>
+        <v>47.988999999999997</v>
       </c>
       <c r="V14">
-        <v>293.89999999999998</v>
+        <v>84.61</v>
       </c>
       <c r="W14">
-        <v>-50.3</v>
+        <v>-10.388</v>
       </c>
       <c r="X14">
-        <v>-226</v>
+        <v>136.33600000000001</v>
       </c>
       <c r="Y14">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="AA14">
-        <v>158.19999999999999</v>
+        <v>31.241</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38080</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>118.6</v>
+        <v>40.21</v>
       </c>
       <c r="D15">
-        <v>1644</v>
+        <v>488.45299999999997</v>
       </c>
       <c r="E15">
-        <v>1519.4</v>
+        <v>496.548</v>
       </c>
       <c r="F15">
-        <v>564.1</v>
+        <v>140.07300000000001</v>
       </c>
       <c r="G15">
-        <v>3305.3</v>
+        <v>950.221</v>
       </c>
       <c r="H15">
-        <v>11766.5</v>
+        <v>2889.1970000000001</v>
       </c>
       <c r="I15">
-        <v>575.4</v>
+        <v>213.16399999999999</v>
       </c>
       <c r="J15">
-        <v>2915</v>
+        <v>829.13499999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,84 +1968,84 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.9</v>
+        <v>-62.484999999999999</v>
       </c>
       <c r="N15">
-        <v>1528.1</v>
+        <v>476.82</v>
       </c>
       <c r="O15">
-        <v>5830.2</v>
+        <v>1589.248</v>
       </c>
       <c r="P15">
-        <v>2936.6</v>
+        <v>834.01900000000001</v>
       </c>
       <c r="Q15">
-        <v>-52.1</v>
+        <v>15.257</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38080</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>5936.3</v>
+        <v>1299.9490000000001</v>
       </c>
       <c r="U15">
-        <v>211.1</v>
+        <v>63.247</v>
       </c>
       <c r="V15">
-        <v>2.5</v>
+        <v>2.9239999999999999</v>
       </c>
       <c r="W15">
-        <v>-49.2</v>
+        <v>-10.457000000000001</v>
       </c>
       <c r="X15">
-        <v>-24.7</v>
+        <v>22.218</v>
       </c>
       <c r="Y15">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>118.6</v>
+        <v>40.21</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38171</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>161.5</v>
+        <v>55.463000000000001</v>
       </c>
       <c r="D16">
-        <v>1834.1</v>
+        <v>530.43299999999999</v>
       </c>
       <c r="E16">
-        <v>1418.1</v>
+        <v>459.71</v>
       </c>
       <c r="F16">
-        <v>646.29999999999995</v>
+        <v>161.65100000000001</v>
       </c>
       <c r="G16">
-        <v>3165.9</v>
+        <v>974.69899999999996</v>
       </c>
       <c r="H16">
-        <v>11616.8</v>
+        <v>2930.96</v>
       </c>
       <c r="I16">
-        <v>587</v>
+        <v>253.447</v>
       </c>
       <c r="J16">
-        <v>2731.4</v>
+        <v>747.31899999999996</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.587</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1777.1</v>
+        <v>542.74599999999998</v>
       </c>
       <c r="O16">
-        <v>5898</v>
+        <v>1586.192</v>
       </c>
       <c r="P16">
-        <v>2745.1</v>
+        <v>754.23900000000003</v>
       </c>
       <c r="Q16">
-        <v>-39.4</v>
+        <v>-4.9989999999999997</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38171</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>5718.8</v>
+        <v>1344.768</v>
       </c>
       <c r="U16">
-        <v>174.4</v>
+        <v>58.247</v>
       </c>
       <c r="V16">
-        <v>412</v>
+        <v>105.14700000000001</v>
       </c>
       <c r="W16">
-        <v>-49.9</v>
+        <v>-10.544</v>
       </c>
       <c r="X16">
-        <v>-430.7</v>
+        <v>-91.353999999999999</v>
       </c>
       <c r="Y16">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>161.5</v>
+        <v>55.463000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38262</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-186</v>
+        <v>47.902000000000001</v>
       </c>
       <c r="D17">
-        <v>1758.4</v>
+        <v>607.76700000000005</v>
       </c>
       <c r="E17">
-        <v>1289.2</v>
+        <v>397.09800000000001</v>
       </c>
       <c r="F17">
-        <v>624.70000000000005</v>
+        <v>169.78399999999999</v>
       </c>
       <c r="G17">
-        <v>3052.4</v>
+        <v>1262.5139999999999</v>
       </c>
       <c r="H17">
-        <v>10926.9</v>
+        <v>4126.8050000000003</v>
       </c>
       <c r="I17">
-        <v>527.20000000000005</v>
+        <v>184.74100000000001</v>
       </c>
       <c r="J17">
-        <v>2953.6</v>
+        <v>737.71900000000005</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1668.7</v>
+        <v>1564.4939999999999</v>
       </c>
       <c r="O17">
-        <v>5959.5</v>
+        <v>2734.114</v>
       </c>
       <c r="P17">
-        <v>2963.2</v>
+        <v>1597.5840000000001</v>
       </c>
       <c r="Q17">
-        <v>-7.9</v>
+        <v>20.547000000000001</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38262</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4967.3999999999996</v>
+        <v>1392.691</v>
       </c>
       <c r="U17">
-        <v>156.6</v>
+        <v>78.793999999999997</v>
       </c>
       <c r="V17">
-        <v>268.89999999999998</v>
+        <v>89.632000000000005</v>
       </c>
       <c r="W17">
-        <v>-57.1</v>
+        <v>-11.041</v>
       </c>
       <c r="X17">
-        <v>-231.9</v>
+        <v>807.52099999999996</v>
       </c>
       <c r="Y17">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>-186</v>
+        <v>47.902000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>120.8</v>
+        <v>27.65</v>
       </c>
       <c r="D18">
-        <v>1802.5</v>
+        <v>651.476</v>
       </c>
       <c r="E18">
-        <v>1309.4000000000001</v>
+        <v>396.459</v>
       </c>
       <c r="F18">
-        <v>627.9</v>
+        <v>183.202</v>
       </c>
       <c r="G18">
-        <v>2894.1</v>
+        <v>825.13699999999994</v>
       </c>
       <c r="H18">
-        <v>10655.2</v>
+        <v>3120.5749999999998</v>
       </c>
       <c r="I18">
-        <v>583.1</v>
+        <v>195.28899999999999</v>
       </c>
       <c r="J18">
-        <v>2997.4</v>
+        <v>724.14800000000002</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1639.5</v>
+        <v>526.87900000000002</v>
       </c>
       <c r="O18">
-        <v>5991.4</v>
+        <v>1672.7809999999999</v>
       </c>
       <c r="P18">
-        <v>3004.1</v>
+        <v>736.10500000000002</v>
       </c>
       <c r="Q18">
-        <v>-46.2</v>
+        <v>-47.298999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>28400</v>
+        <v>12900</v>
       </c>
       <c r="T18">
-        <v>4663.8</v>
+        <v>1447.7940000000001</v>
       </c>
       <c r="U18">
-        <v>110.4</v>
+        <v>31.495000000000001</v>
       </c>
       <c r="V18">
-        <v>325</v>
+        <v>66.388000000000005</v>
       </c>
       <c r="W18">
-        <v>-55.2</v>
+        <v>-11.086</v>
       </c>
       <c r="X18">
-        <v>-307.8</v>
+        <v>-876.21500000000003</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2259,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>120.8</v>
+        <v>27.65</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42091</v>
+        <v>38444</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>113.9</v>
+        <v>40.180999999999997</v>
       </c>
       <c r="D19">
-        <v>1475</v>
+        <v>709.63499999999999</v>
       </c>
       <c r="E19">
-        <v>1356.4</v>
+        <v>475.60300000000001</v>
       </c>
       <c r="F19">
-        <v>510.2</v>
+        <v>204.13800000000001</v>
       </c>
       <c r="G19">
-        <v>2976.9</v>
+        <v>937.10299999999995</v>
       </c>
       <c r="H19">
-        <v>10569.4</v>
+        <v>3228.922</v>
       </c>
       <c r="I19">
-        <v>504.9</v>
+        <v>185.13800000000001</v>
       </c>
       <c r="J19">
-        <v>3403.4</v>
+        <v>848.00599999999997</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2300,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-0.4</v>
+        <v>-14.12</v>
       </c>
       <c r="N19">
-        <v>1431.1</v>
+        <v>480.30900000000003</v>
       </c>
       <c r="O19">
-        <v>6146.1</v>
+        <v>1757.443</v>
       </c>
       <c r="P19">
-        <v>3409</v>
+        <v>865.42899999999997</v>
       </c>
       <c r="Q19">
-        <v>20.7</v>
+        <v>12.343999999999999</v>
       </c>
       <c r="R19">
-        <v>42091</v>
+        <v>38444</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4423.3</v>
+        <v>1471.479</v>
       </c>
       <c r="U19">
-        <v>131.1</v>
+        <v>43.838999999999999</v>
       </c>
       <c r="V19">
-        <v>-133.19999999999999</v>
+        <v>-80.070999999999998</v>
       </c>
       <c r="W19">
-        <v>-57.5</v>
+        <v>-13.428000000000001</v>
       </c>
       <c r="X19">
-        <v>159.6</v>
+        <v>125.392</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>113.9</v>
+        <v>40.180999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42182</v>
+        <v>38535</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>147.80000000000001</v>
+        <v>61.378999999999998</v>
       </c>
       <c r="D20">
-        <v>739.6</v>
+        <v>788.52300000000002</v>
       </c>
       <c r="E20">
-        <v>1287</v>
+        <v>457.87799999999999</v>
       </c>
       <c r="F20">
-        <v>261.39999999999998</v>
+        <v>235.233</v>
       </c>
       <c r="G20">
-        <v>2902.9</v>
+        <v>916.00199999999995</v>
       </c>
       <c r="H20">
-        <v>10564.7</v>
+        <v>3169.498</v>
       </c>
       <c r="I20">
-        <v>525.9</v>
+        <v>195.702</v>
       </c>
       <c r="J20">
-        <v>3260.9</v>
+        <v>727.63099999999997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1460</v>
+        <v>509.815</v>
       </c>
       <c r="O20">
-        <v>6012.6</v>
+        <v>1659.569</v>
       </c>
       <c r="P20">
-        <v>3266.2</v>
+        <v>734.1</v>
       </c>
       <c r="Q20">
-        <v>16.2</v>
+        <v>-1.986</v>
       </c>
       <c r="R20">
-        <v>42182</v>
+        <v>38535</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4552.1000000000004</v>
+        <v>1509.9290000000001</v>
       </c>
       <c r="U20">
-        <v>147.30000000000001</v>
+        <v>41.853000000000002</v>
       </c>
       <c r="V20">
-        <v>318.7</v>
+        <v>119.006</v>
       </c>
       <c r="W20">
-        <v>-58.1</v>
+        <v>-13.22</v>
       </c>
       <c r="X20">
-        <v>-194.5</v>
+        <v>-138.25899999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>147.80000000000001</v>
+        <v>61.378999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42273</v>
+        <v>38626</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>115.2</v>
+        <v>44.533000000000001</v>
       </c>
       <c r="D21">
-        <v>1112.8</v>
+        <v>716.30799999999999</v>
       </c>
       <c r="E21">
-        <v>1262.0999999999999</v>
+        <v>428.48599999999999</v>
       </c>
       <c r="F21">
-        <v>394.7</v>
+        <v>200.84100000000001</v>
       </c>
       <c r="G21">
-        <v>2964.2</v>
+        <v>915.55100000000004</v>
       </c>
       <c r="H21">
-        <v>12670.9</v>
+        <v>3175.067</v>
       </c>
       <c r="I21">
-        <v>531</v>
+        <v>183.376</v>
       </c>
       <c r="J21">
-        <v>4983.2</v>
+        <v>685.35400000000004</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1496.2</v>
+        <v>521.25199999999995</v>
       </c>
       <c r="O21">
-        <v>8135</v>
+        <v>1629.566</v>
       </c>
       <c r="P21">
-        <v>4986.3999999999996</v>
+        <v>689.35699999999997</v>
       </c>
       <c r="Q21">
-        <v>-2.4</v>
+        <v>7.4989999999999997</v>
       </c>
       <c r="R21">
-        <v>42273</v>
+        <v>38626</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4535.8999999999996</v>
+        <v>1545.501</v>
       </c>
       <c r="U21">
-        <v>144.9</v>
+        <v>49.351999999999997</v>
       </c>
       <c r="V21">
-        <v>210.4</v>
+        <v>87.341999999999999</v>
       </c>
       <c r="W21">
-        <v>-57.7</v>
+        <v>-13.241</v>
       </c>
       <c r="X21">
-        <v>1647.4</v>
+        <v>-56.732999999999997</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>23.599</v>
       </c>
       <c r="AA21">
-        <v>115.2</v>
+        <v>44.533000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-453.3</v>
+        <v>38.956000000000003</v>
       </c>
       <c r="D22">
-        <v>1289</v>
+        <v>732.11300000000006</v>
       </c>
       <c r="E22">
-        <v>887.6</v>
+        <v>423.84699999999998</v>
       </c>
       <c r="F22">
-        <v>468.2</v>
+        <v>207.809</v>
       </c>
       <c r="G22">
-        <v>2777.6</v>
+        <v>895.024</v>
       </c>
       <c r="H22">
-        <v>11833.5</v>
+        <v>3253.7550000000001</v>
       </c>
       <c r="I22">
-        <v>403.8</v>
+        <v>207.32</v>
       </c>
       <c r="J22">
-        <v>4685.8</v>
+        <v>748.47699999999998</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1486.5</v>
+        <v>524.66999999999996</v>
       </c>
       <c r="O22">
-        <v>7824.7</v>
+        <v>1698.145</v>
       </c>
       <c r="P22">
-        <v>4685.8</v>
+        <v>752.61400000000003</v>
       </c>
       <c r="Q22">
-        <v>-18.600000000000001</v>
+        <v>-0.85199999999999998</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>27600</v>
+        <v>14700</v>
       </c>
       <c r="T22">
-        <v>4008.8</v>
+        <v>1555.61</v>
       </c>
       <c r="U22">
-        <v>126.3</v>
+        <v>48.5</v>
       </c>
       <c r="V22">
-        <v>343.4</v>
+        <v>121.581</v>
       </c>
       <c r="W22">
-        <v>-58.4</v>
+        <v>-13.244999999999999</v>
       </c>
       <c r="X22">
-        <v>-326.2</v>
+        <v>25.823</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="AA22">
-        <v>-453.3</v>
+        <v>38.956000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38808</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>107.4</v>
+        <v>41.62</v>
       </c>
       <c r="D23">
-        <v>1190</v>
+        <v>771.38900000000001</v>
       </c>
       <c r="E23">
-        <v>1390.9</v>
+        <v>520.96799999999996</v>
       </c>
       <c r="F23">
-        <v>431.3</v>
+        <v>222.50800000000001</v>
       </c>
       <c r="G23">
-        <v>3005.9</v>
+        <v>1020.177</v>
       </c>
       <c r="H23">
-        <v>12030.2</v>
+        <v>3388.683</v>
       </c>
       <c r="I23">
-        <v>579</v>
+        <v>206.52799999999999</v>
       </c>
       <c r="J23">
-        <v>4837.1000000000004</v>
+        <v>888.01499999999999</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2632,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-0.7</v>
+        <v>-133.05099999999999</v>
       </c>
       <c r="N23">
-        <v>1467.6</v>
+        <v>473.51400000000001</v>
       </c>
       <c r="O23">
-        <v>7946</v>
+        <v>1793.991</v>
       </c>
       <c r="P23">
-        <v>4837.8</v>
+        <v>892.26099999999997</v>
       </c>
       <c r="Q23">
-        <v>31.8</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38808</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>4084.2</v>
+        <v>1594.692</v>
       </c>
       <c r="U23">
-        <v>158.1</v>
+        <v>50.237000000000002</v>
       </c>
       <c r="V23">
-        <v>-15</v>
+        <v>-92.302000000000007</v>
       </c>
       <c r="W23">
-        <v>-60.1</v>
+        <v>-14.224</v>
       </c>
       <c r="X23">
-        <v>77.2</v>
+        <v>130.74</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>107.4</v>
+        <v>41.62</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>142.80000000000001</v>
+        <v>68.632999999999996</v>
       </c>
       <c r="D24">
-        <v>1301.2</v>
+        <v>862.02200000000005</v>
       </c>
       <c r="E24">
-        <v>1222.0999999999999</v>
+        <v>502.98200000000003</v>
       </c>
       <c r="F24">
-        <v>481.8</v>
+        <v>262.68900000000002</v>
       </c>
       <c r="G24">
-        <v>2792.8</v>
+        <v>1005.1130000000001</v>
       </c>
       <c r="H24">
-        <v>11743.8</v>
+        <v>3390.2049999999999</v>
       </c>
       <c r="I24">
-        <v>531.70000000000005</v>
+        <v>224.23699999999999</v>
       </c>
       <c r="J24">
-        <v>4551.7</v>
+        <v>801.89800000000002</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4.8689999999999998</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1415.9</v>
+        <v>502.68599999999998</v>
       </c>
       <c r="O24">
-        <v>7577.5</v>
+        <v>1748.0429999999999</v>
       </c>
       <c r="P24">
-        <v>4551.7</v>
+        <v>813.73699999999997</v>
       </c>
       <c r="Q24">
-        <v>15.2</v>
+        <v>-1.9059999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38899</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4166.3</v>
+        <v>1642.162</v>
       </c>
       <c r="U24">
-        <v>173.3</v>
+        <v>48.331000000000003</v>
       </c>
       <c r="V24">
-        <v>384.5</v>
+        <v>139.49600000000001</v>
       </c>
       <c r="W24">
-        <v>-59.6</v>
+        <v>-14.234</v>
       </c>
       <c r="X24">
-        <v>-325.89999999999998</v>
+        <v>-111.129</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>142.80000000000001</v>
+        <v>68.632999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>141</v>
+        <v>34.841000000000001</v>
       </c>
       <c r="D25">
-        <v>1210.7</v>
+        <v>778.02</v>
       </c>
       <c r="E25">
-        <v>824.1</v>
+        <v>454.255</v>
       </c>
       <c r="F25">
-        <v>440.9</v>
+        <v>212.48699999999999</v>
       </c>
       <c r="G25">
-        <v>2747</v>
+        <v>971.82100000000003</v>
       </c>
       <c r="H25">
-        <v>11679</v>
+        <v>3355.1729999999998</v>
       </c>
       <c r="I25">
-        <v>348.2</v>
+        <v>191.20599999999999</v>
       </c>
       <c r="J25">
-        <v>4411.3</v>
+        <v>788.06600000000003</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1288.0999999999999</v>
+        <v>472.66899999999998</v>
       </c>
       <c r="O25">
-        <v>7323.7</v>
+        <v>1714.3720000000001</v>
       </c>
       <c r="P25">
-        <v>4411.3</v>
+        <v>794.97799999999995</v>
       </c>
       <c r="Q25">
-        <v>-2.4</v>
+        <v>-3.1779999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4355.3</v>
+        <v>1640.8009999999999</v>
       </c>
       <c r="U25">
-        <v>170.9</v>
+        <v>45.152999999999999</v>
       </c>
       <c r="V25">
-        <v>187.3</v>
+        <v>78.706000000000003</v>
       </c>
       <c r="W25">
-        <v>-61.9</v>
+        <v>-14.157999999999999</v>
       </c>
       <c r="X25">
-        <v>-195.8</v>
+        <v>-64.027000000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="AA25">
-        <v>141</v>
+        <v>34.841000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>131</v>
+        <v>38.637</v>
       </c>
       <c r="D26">
-        <v>1188.0999999999999</v>
+        <v>743.03800000000001</v>
       </c>
       <c r="E26">
-        <v>871.7</v>
+        <v>422.13400000000001</v>
       </c>
       <c r="F26">
-        <v>440.1</v>
+        <v>208.566</v>
       </c>
       <c r="G26">
-        <v>2672</v>
+        <v>957.62800000000004</v>
       </c>
       <c r="H26">
-        <v>11534.8</v>
+        <v>3364.9789999999998</v>
       </c>
       <c r="I26">
-        <v>436.6</v>
+        <v>206.286</v>
       </c>
       <c r="J26">
-        <v>4278.3999999999996</v>
+        <v>721.87300000000005</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>14.563000000000001</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,120 +2884,120 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1471.2</v>
+        <v>521.28200000000004</v>
       </c>
       <c r="O26">
-        <v>7280.4</v>
+        <v>1694.98</v>
       </c>
       <c r="P26">
-        <v>4279.2</v>
+        <v>744.06100000000004</v>
       </c>
       <c r="Q26">
-        <v>67.599999999999994</v>
+        <v>9.6669999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>26000</v>
+        <v>14800</v>
       </c>
       <c r="T26">
-        <v>4254.3999999999996</v>
+        <v>1669.999</v>
       </c>
       <c r="U26">
-        <v>238.5</v>
+        <v>54.82</v>
       </c>
       <c r="V26">
-        <v>304.60000000000002</v>
+        <v>105.711</v>
       </c>
       <c r="W26">
-        <v>-62</v>
+        <v>-13.967000000000001</v>
       </c>
       <c r="X26">
-        <v>-155.6</v>
+        <v>-73.366</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="AA26">
-        <v>131</v>
+        <v>38.637</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>87.8</v>
+        <v>42.273000000000003</v>
       </c>
       <c r="D27">
-        <v>683.3</v>
+        <v>792.84500000000003</v>
       </c>
       <c r="E27">
-        <v>1033.5999999999999</v>
+        <v>532.79200000000003</v>
       </c>
       <c r="F27">
-        <v>223.7</v>
+        <v>235.93100000000001</v>
       </c>
       <c r="G27">
-        <v>2841.1</v>
+        <v>1104.3050000000001</v>
       </c>
       <c r="H27">
-        <v>11818</v>
+        <v>3740.3130000000001</v>
       </c>
       <c r="I27">
-        <v>387.3</v>
+        <v>208.71299999999999</v>
       </c>
       <c r="J27">
-        <v>4528.8999999999996</v>
+        <v>1056.4949999999999</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>16.003</v>
       </c>
       <c r="L27">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-10.25</v>
       </c>
       <c r="N27">
-        <v>1397.6</v>
+        <v>505.61799999999999</v>
       </c>
       <c r="O27">
-        <v>7443.2</v>
+        <v>2034.4559999999999</v>
       </c>
       <c r="P27">
-        <v>4529.6000000000004</v>
+        <v>1080.7550000000001</v>
       </c>
       <c r="Q27">
-        <v>-0.4</v>
+        <v>9.41</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4374.8</v>
+        <v>1705.857</v>
       </c>
       <c r="U27">
-        <v>238.1</v>
+        <v>64.23</v>
       </c>
       <c r="V27">
-        <v>-106</v>
+        <v>-57.668999999999997</v>
       </c>
       <c r="W27">
-        <v>-62.8</v>
+        <v>-15.022</v>
       </c>
       <c r="X27">
-        <v>169</v>
+        <v>314.697</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>87.8</v>
+        <v>42.273000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>263.7</v>
+        <v>62.064999999999998</v>
       </c>
       <c r="D28">
-        <v>754</v>
+        <v>899.29899999999998</v>
       </c>
       <c r="E28">
-        <v>878.1</v>
+        <v>533.14400000000001</v>
       </c>
       <c r="F28">
-        <v>273.60000000000002</v>
+        <v>279.54899999999998</v>
       </c>
       <c r="G28">
-        <v>1754.8</v>
+        <v>1096.2629999999999</v>
       </c>
       <c r="H28">
-        <v>8669.1</v>
+        <v>3973.2440000000001</v>
       </c>
       <c r="I28">
-        <v>407.8</v>
+        <v>219.15100000000001</v>
       </c>
       <c r="J28">
-        <v>1698.9</v>
+        <v>1173.527</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>10.202</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1048.4000000000001</v>
+        <v>544.928</v>
       </c>
       <c r="O28">
-        <v>3765.6</v>
+        <v>2198.9499999999998</v>
       </c>
       <c r="P28">
-        <v>1699.2</v>
+        <v>1188.3510000000001</v>
       </c>
       <c r="Q28">
-        <v>-74.8</v>
+        <v>-12.214</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4903.5</v>
+        <v>1774.2940000000001</v>
       </c>
       <c r="U28">
-        <v>177.8</v>
+        <v>52.015999999999998</v>
       </c>
       <c r="V28">
-        <v>261.3</v>
+        <v>155.58500000000001</v>
       </c>
       <c r="W28">
-        <v>-63.3</v>
+        <v>-14.968999999999999</v>
       </c>
       <c r="X28">
-        <v>-3095.8</v>
+        <v>94.738</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>263.7</v>
+        <v>62.064999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>125.4</v>
+        <v>58.043999999999997</v>
       </c>
       <c r="D29">
-        <v>687.6</v>
+        <v>821.21500000000003</v>
       </c>
       <c r="E29">
-        <v>896.7</v>
+        <v>479.91500000000002</v>
       </c>
       <c r="F29">
-        <v>236.5</v>
+        <v>244.696</v>
       </c>
       <c r="G29">
-        <v>1705.8</v>
+        <v>1052.3409999999999</v>
       </c>
       <c r="H29">
-        <v>8628.7999999999993</v>
+        <v>3986.8710000000001</v>
       </c>
       <c r="I29">
-        <v>383.4</v>
+        <v>208.505</v>
       </c>
       <c r="J29">
-        <v>1503.4</v>
+        <v>1103.623</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1072.5999999999999</v>
+        <v>542.096</v>
       </c>
       <c r="O29">
-        <v>3620.2</v>
+        <v>2158.7139999999999</v>
       </c>
       <c r="P29">
-        <v>1503.4</v>
+        <v>1113.5219999999999</v>
       </c>
       <c r="Q29">
-        <v>-60.4</v>
+        <v>4.5389999999999997</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5008.6000000000004</v>
+        <v>1828.1569999999999</v>
       </c>
       <c r="U29">
-        <v>108.5</v>
+        <v>56.555</v>
       </c>
       <c r="V29">
-        <v>206.5</v>
+        <v>131.417</v>
       </c>
       <c r="W29">
-        <v>-62.8</v>
+        <v>-14.994999999999999</v>
       </c>
       <c r="X29">
-        <v>-275.10000000000002</v>
+        <v>-109.26600000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>125.4</v>
+        <v>58.043999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>189.6</v>
+        <v>48.545000000000002</v>
       </c>
       <c r="D30">
-        <v>720.8</v>
+        <v>767.54399999999998</v>
       </c>
       <c r="E30">
-        <v>534.6</v>
+        <v>461.40800000000002</v>
       </c>
       <c r="F30">
-        <v>253.7</v>
+        <v>252.52199999999999</v>
       </c>
       <c r="G30">
-        <v>1748.8</v>
+        <v>1038.021</v>
       </c>
       <c r="H30">
-        <v>8633.7000000000007</v>
+        <v>4000.614</v>
       </c>
       <c r="I30">
-        <v>321.5</v>
+        <v>227.786</v>
       </c>
       <c r="J30">
-        <v>1440.7</v>
+        <v>1048.125</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>13.586</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1199.4000000000001</v>
+        <v>560.31700000000001</v>
       </c>
       <c r="O30">
-        <v>3595.9</v>
+        <v>2089.7429999999999</v>
       </c>
       <c r="P30">
-        <v>1440.7</v>
+        <v>1066.7860000000001</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>14.24</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="T30">
-        <v>5037.8</v>
+        <v>1910.8710000000001</v>
       </c>
       <c r="U30">
-        <v>86.3</v>
+        <v>70.795000000000002</v>
       </c>
       <c r="V30">
-        <v>258.39999999999998</v>
+        <v>111.94499999999999</v>
       </c>
       <c r="W30">
-        <v>-62.8</v>
+        <v>-14.923999999999999</v>
       </c>
       <c r="X30">
-        <v>-230.7</v>
+        <v>-77.483000000000004</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>189.6</v>
+        <v>48.545000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>102.9</v>
+        <v>44.29</v>
       </c>
       <c r="D31">
-        <v>732.6</v>
+        <v>830.14599999999996</v>
       </c>
       <c r="E31">
-        <v>1103.2</v>
+        <v>616.70500000000004</v>
       </c>
       <c r="F31">
-        <v>253.3</v>
+        <v>250.69399999999999</v>
       </c>
       <c r="G31">
-        <v>2719</v>
+        <v>1192.568</v>
       </c>
       <c r="H31">
-        <v>9368.1</v>
+        <v>4170.3879999999999</v>
       </c>
       <c r="I31">
-        <v>404</v>
+        <v>235.798</v>
       </c>
       <c r="J31">
-        <v>2673.1</v>
+        <v>1133.405</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>7.0049999999999999</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-7.2720000000000002</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-82.766000000000005</v>
       </c>
       <c r="N31">
-        <v>1027.5</v>
+        <v>575.22699999999998</v>
       </c>
       <c r="O31">
-        <v>4648.3999999999996</v>
+        <v>2196.1680000000001</v>
       </c>
       <c r="P31">
-        <v>2673.3</v>
+        <v>1145.6189999999999</v>
       </c>
       <c r="Q31">
-        <v>-15.5</v>
+        <v>-8.5109999999999992</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4719.7</v>
+        <v>1974.22</v>
       </c>
       <c r="U31">
-        <v>907.5</v>
+        <v>62.283999999999999</v>
       </c>
       <c r="V31">
-        <v>-167.6</v>
+        <v>-70.531999999999996</v>
       </c>
       <c r="W31">
-        <v>-63.3</v>
+        <v>-16.908000000000001</v>
       </c>
       <c r="X31">
-        <v>997.8</v>
+        <v>41.188000000000002</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>102.9</v>
+        <v>44.29</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>41.5</v>
+        <v>138.73500000000001</v>
       </c>
       <c r="D32">
-        <v>780.6</v>
+        <v>898.37800000000004</v>
       </c>
       <c r="E32">
-        <v>471.4</v>
+        <v>558.928</v>
       </c>
       <c r="F32">
-        <v>282.60000000000002</v>
+        <v>278.41000000000003</v>
       </c>
       <c r="G32">
-        <v>996.6</v>
+        <v>1169.1389999999999</v>
       </c>
       <c r="H32">
-        <v>3806</v>
+        <v>4344.0219999999999</v>
       </c>
       <c r="I32">
-        <v>275.10000000000002</v>
+        <v>238.65600000000001</v>
       </c>
       <c r="J32">
-        <v>779.9</v>
+        <v>1029.8599999999999</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>709.4</v>
+        <v>583.44899999999996</v>
       </c>
       <c r="O32">
-        <v>1917.1</v>
+        <v>2123.8270000000002</v>
       </c>
       <c r="P32">
-        <v>779.9</v>
+        <v>1034.519</v>
       </c>
       <c r="Q32">
-        <v>7.9</v>
+        <v>12.332000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1888.9</v>
+        <v>2220.1950000000002</v>
       </c>
       <c r="U32">
-        <v>78.7</v>
+        <v>74.616</v>
       </c>
       <c r="V32">
-        <v>339.5</v>
+        <v>146.006</v>
       </c>
       <c r="W32">
-        <v>-62.6</v>
+        <v>-16.838999999999999</v>
       </c>
       <c r="X32">
-        <v>-1158.9000000000001</v>
+        <v>-126.05500000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>41.5</v>
+        <v>138.73500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>110.1</v>
+        <v>41.12</v>
       </c>
       <c r="D33">
-        <v>711.4</v>
+        <v>855.81500000000005</v>
       </c>
       <c r="E33">
-        <v>447.2</v>
+        <v>517.24</v>
       </c>
       <c r="F33">
-        <v>243.8</v>
+        <v>255.953</v>
       </c>
       <c r="G33">
-        <v>989.6</v>
+        <v>1144.7349999999999</v>
       </c>
       <c r="H33">
-        <v>3809.5</v>
+        <v>4251.125</v>
       </c>
       <c r="I33">
-        <v>261.3</v>
+        <v>225.928</v>
       </c>
       <c r="J33">
-        <v>798.8</v>
+        <v>1042.25</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>707.4</v>
+        <v>533.94799999999998</v>
       </c>
       <c r="O33">
-        <v>1929.3</v>
+        <v>2074.9029999999998</v>
       </c>
       <c r="P33">
-        <v>798.8</v>
+        <v>1046.163</v>
       </c>
       <c r="Q33">
-        <v>-14</v>
+        <v>18.928000000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39718</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1880.2</v>
+        <v>2176.2220000000002</v>
       </c>
       <c r="U33">
-        <v>64.7</v>
+        <v>93.543999999999997</v>
       </c>
       <c r="V33">
-        <v>112.7</v>
+        <v>61.405000000000001</v>
       </c>
       <c r="W33">
-        <v>-30.8</v>
+        <v>-16.794</v>
       </c>
       <c r="X33">
-        <v>-107.3</v>
+        <v>-17.64</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>110.1</v>
+        <v>41.12</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>92.9</v>
+        <v>4.5890000000000004</v>
       </c>
       <c r="D34">
-        <v>740.5</v>
+        <v>767.63699999999994</v>
       </c>
       <c r="E34">
-        <v>524.70000000000005</v>
+        <v>461.08100000000002</v>
       </c>
       <c r="F34">
-        <v>268</v>
+        <v>229.49299999999999</v>
       </c>
       <c r="G34">
-        <v>1039.4000000000001</v>
+        <v>1032.1790000000001</v>
       </c>
       <c r="H34">
-        <v>3806.5</v>
+        <v>4053.2130000000002</v>
       </c>
       <c r="I34">
-        <v>378.6</v>
+        <v>217.898</v>
       </c>
       <c r="J34">
-        <v>787.6</v>
+        <v>975.77700000000004</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>818.7</v>
+        <v>498.50400000000002</v>
       </c>
       <c r="O34">
-        <v>1970.4</v>
+        <v>2033.144</v>
       </c>
       <c r="P34">
-        <v>787.6</v>
+        <v>976.40099999999995</v>
       </c>
       <c r="Q34">
-        <v>9.6</v>
+        <v>-54.2</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>10000</v>
+        <v>14700</v>
       </c>
       <c r="T34">
-        <v>1836.1</v>
+        <v>2020.069</v>
       </c>
       <c r="U34">
-        <v>74.3</v>
+        <v>39.344000000000001</v>
       </c>
       <c r="V34">
-        <v>154.5</v>
+        <v>67.335999999999999</v>
       </c>
       <c r="W34">
-        <v>-30.5</v>
+        <v>-16.742999999999999</v>
       </c>
       <c r="X34">
-        <v>-139.5</v>
+        <v>-114.694</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,125 +3587,125 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>92.9</v>
+        <v>4.5890000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39900</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>51.3</v>
+        <v>17.265000000000001</v>
       </c>
       <c r="D35">
-        <v>688.9</v>
+        <v>633.84</v>
       </c>
       <c r="E35">
-        <v>684.1</v>
+        <v>505.19600000000003</v>
       </c>
       <c r="F35">
-        <v>235.6</v>
+        <v>169.232</v>
       </c>
       <c r="G35">
-        <v>1251.5999999999999</v>
+        <v>1032.221</v>
       </c>
       <c r="H35">
-        <v>4382.2</v>
+        <v>4024.8290000000002</v>
       </c>
       <c r="I35">
-        <v>265.3</v>
+        <v>196.767</v>
       </c>
       <c r="J35">
-        <v>1370.7</v>
+        <v>1013.5069999999999</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>7.4039999999999999</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-96.679000000000002</v>
       </c>
       <c r="N35">
-        <v>705.3</v>
+        <v>451.97899999999998</v>
       </c>
       <c r="O35">
-        <v>2511.8000000000002</v>
+        <v>2019.4290000000001</v>
       </c>
       <c r="P35">
-        <v>1448.3</v>
+        <v>1021.5410000000001</v>
       </c>
       <c r="Q35">
-        <v>4.5999999999999996</v>
+        <v>-4.6360000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39900</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1870.4</v>
+        <v>2005.4</v>
       </c>
       <c r="U35">
-        <v>78.900000000000006</v>
+        <v>34.707999999999998</v>
       </c>
       <c r="V35">
-        <v>-256.3</v>
+        <v>-17.053000000000001</v>
       </c>
       <c r="W35">
-        <v>-31</v>
+        <v>-17.71</v>
       </c>
       <c r="X35">
-        <v>559</v>
+        <v>28.849</v>
       </c>
       <c r="Y35">
-        <v>57.7</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>51.3</v>
+        <v>17.265000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39991</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>114.3</v>
+        <v>31.928000000000001</v>
       </c>
       <c r="D36">
-        <v>799.5</v>
+        <v>693.71199999999999</v>
       </c>
       <c r="E36">
-        <v>503.1</v>
+        <v>462.10599999999999</v>
       </c>
       <c r="F36">
-        <v>286.7</v>
+        <v>196.47900000000001</v>
       </c>
       <c r="G36">
-        <v>1041.5</v>
+        <v>964.54300000000001</v>
       </c>
       <c r="H36">
-        <v>4170</v>
+        <v>3977.2449999999999</v>
       </c>
       <c r="I36">
-        <v>261.7</v>
+        <v>212.97300000000001</v>
       </c>
       <c r="J36">
-        <v>1215.0999999999999</v>
+        <v>900.08100000000002</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>6.1429999999999998</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>710.2</v>
+        <v>462.02699999999999</v>
       </c>
       <c r="O36">
-        <v>2363.4</v>
+        <v>1921.8320000000001</v>
       </c>
       <c r="P36">
-        <v>1297</v>
+        <v>906.346</v>
       </c>
       <c r="Q36">
-        <v>1.6</v>
+        <v>3.41</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39991</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1806.6</v>
+        <v>2055.413</v>
       </c>
       <c r="U36">
-        <v>80.5</v>
+        <v>38.118000000000002</v>
       </c>
       <c r="V36">
-        <v>353</v>
+        <v>142.203</v>
       </c>
       <c r="W36">
-        <v>-31</v>
+        <v>-17.722999999999999</v>
       </c>
       <c r="X36">
-        <v>-336.6</v>
+        <v>-126.917</v>
       </c>
       <c r="Y36">
-        <v>62.1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>114.3</v>
+        <v>31.928000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40082</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>92.3</v>
+        <v>36.948</v>
       </c>
       <c r="D37">
-        <v>713.6</v>
+        <v>662.66499999999996</v>
       </c>
       <c r="E37">
-        <v>441.3</v>
+        <v>423.125</v>
       </c>
       <c r="F37">
-        <v>255</v>
+        <v>206.96700000000001</v>
       </c>
       <c r="G37">
-        <v>1002.6</v>
+        <v>941.19799999999998</v>
       </c>
       <c r="H37">
-        <v>4080.4</v>
+        <v>3982.252</v>
       </c>
       <c r="I37">
-        <v>253.4</v>
+        <v>199.00200000000001</v>
       </c>
       <c r="J37">
-        <v>1118.7</v>
+        <v>833.15700000000004</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>694.2</v>
+        <v>467.06799999999998</v>
       </c>
       <c r="O37">
-        <v>2211.6</v>
+        <v>1863.116</v>
       </c>
       <c r="P37">
-        <v>1201.5</v>
+        <v>833.27099999999996</v>
       </c>
       <c r="Q37">
-        <v>32.700000000000003</v>
+        <v>12.096</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40082</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1868.8</v>
+        <v>2119.136</v>
       </c>
       <c r="U37">
-        <v>113.2</v>
+        <v>50.213999999999999</v>
       </c>
       <c r="V37">
-        <v>168</v>
+        <v>113.5</v>
       </c>
       <c r="W37">
-        <v>-30.4</v>
+        <v>-17.728999999999999</v>
       </c>
       <c r="X37">
-        <v>-124.6</v>
+        <v>-91.453000000000003</v>
       </c>
       <c r="Y37">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>92.3</v>
+        <v>36.948</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>97.8</v>
+        <v>29.352</v>
       </c>
       <c r="D38">
-        <v>755.2</v>
+        <v>702.25099999999998</v>
       </c>
       <c r="E38">
-        <v>543.9</v>
+        <v>455.09</v>
       </c>
       <c r="F38">
-        <v>274.2</v>
+        <v>212.45699999999999</v>
       </c>
       <c r="G38">
-        <v>1061.9000000000001</v>
+        <v>946.298</v>
       </c>
       <c r="H38">
-        <v>4139.5</v>
+        <v>3911.3339999999998</v>
       </c>
       <c r="I38">
-        <v>325.10000000000002</v>
+        <v>207.661</v>
       </c>
       <c r="J38">
-        <v>1029.0999999999999</v>
+        <v>819.75099999999998</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>749</v>
+        <v>446.279</v>
       </c>
       <c r="O38">
-        <v>2185.6</v>
+        <v>1784.9939999999999</v>
       </c>
       <c r="P38">
-        <v>1109.2</v>
+        <v>822.03700000000003</v>
       </c>
       <c r="Q38">
-        <v>-30.7</v>
+        <v>-16.818000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>9500</v>
+        <v>13150</v>
       </c>
       <c r="T38">
-        <v>1953.9</v>
+        <v>2126.34</v>
       </c>
       <c r="U38">
-        <v>82.5</v>
+        <v>33.396000000000001</v>
       </c>
       <c r="V38">
-        <v>88.3</v>
+        <v>19.719000000000001</v>
       </c>
       <c r="W38">
-        <v>-30.3</v>
+        <v>-17.765000000000001</v>
       </c>
       <c r="X38">
-        <v>-114.9</v>
+        <v>-19.562000000000001</v>
       </c>
       <c r="Y38">
-        <v>61.1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>97.8</v>
+        <v>29.352</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40271</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>72.7</v>
+        <v>35.320999999999998</v>
       </c>
       <c r="D39">
-        <v>710</v>
+        <v>707.01300000000003</v>
       </c>
       <c r="E39">
-        <v>710.5</v>
+        <v>550.83000000000004</v>
       </c>
       <c r="F39">
-        <v>251.6</v>
+        <v>213.702</v>
       </c>
       <c r="G39">
-        <v>1339.6</v>
+        <v>1054.5250000000001</v>
       </c>
       <c r="H39">
-        <v>4426.7</v>
+        <v>3981.1840000000002</v>
       </c>
       <c r="I39">
-        <v>268.2</v>
+        <v>229.50200000000001</v>
       </c>
       <c r="J39">
-        <v>1450.5</v>
+        <v>879.55100000000004</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>3.7309999999999999</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-141.02500000000001</v>
       </c>
       <c r="N39">
-        <v>682.8</v>
+        <v>477.51799999999997</v>
       </c>
       <c r="O39">
-        <v>2534.1999999999998</v>
+        <v>1869.1279999999999</v>
       </c>
       <c r="P39">
-        <v>1533.5</v>
+        <v>883.33299999999997</v>
       </c>
       <c r="Q39">
-        <v>86.8</v>
+        <v>13.387</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40271</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1892.5</v>
+        <v>2112.056</v>
       </c>
       <c r="U39">
-        <v>169.3</v>
+        <v>46.783000000000001</v>
       </c>
       <c r="V39">
-        <v>-162.4</v>
+        <v>-10.313000000000001</v>
       </c>
       <c r="W39">
-        <v>-32.1</v>
+        <v>-18.837</v>
       </c>
       <c r="X39">
-        <v>278.8</v>
+        <v>40.706000000000003</v>
       </c>
       <c r="Y39">
-        <v>64.2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>72.7</v>
+        <v>35.320999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40362</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>61.081000000000003</v>
       </c>
       <c r="D40">
-        <v>713.3</v>
+        <v>796.16700000000003</v>
       </c>
       <c r="E40">
-        <v>451.3</v>
+        <v>475.67899999999997</v>
       </c>
       <c r="F40">
-        <v>245.1</v>
+        <v>248.16800000000001</v>
       </c>
       <c r="G40">
-        <v>1001.7</v>
+        <v>995.62300000000005</v>
       </c>
       <c r="H40">
-        <v>4116.1000000000004</v>
+        <v>3852.7</v>
       </c>
       <c r="I40">
-        <v>256</v>
+        <v>248.679</v>
       </c>
       <c r="J40">
-        <v>1013</v>
+        <v>752.572</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>750.6</v>
+        <v>525.72799999999995</v>
       </c>
       <c r="O40">
-        <v>2166.4</v>
+        <v>1760.885</v>
       </c>
       <c r="P40">
-        <v>1098</v>
+        <v>755.05499999999995</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-8.2029999999999994</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40362</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>1949.7</v>
+        <v>2091.8150000000001</v>
       </c>
       <c r="U40">
-        <v>90.6</v>
+        <v>38.58</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>166.727</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-18.863</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>-146.55699999999999</v>
       </c>
       <c r="Y40">
-        <v>64.8</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>72.099999999999994</v>
+        <v>61.081000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40453</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>110.8</v>
+        <v>55.05</v>
       </c>
       <c r="D41">
-        <v>798.5</v>
+        <v>773.73500000000001</v>
       </c>
       <c r="E41">
-        <v>417.7</v>
+        <v>490.221</v>
       </c>
       <c r="F41">
-        <v>280</v>
+        <v>236.542</v>
       </c>
       <c r="G41">
-        <v>963.5</v>
+        <v>1056.8340000000001</v>
       </c>
       <c r="H41">
-        <v>4103.5</v>
+        <v>3972.7579999999998</v>
       </c>
       <c r="I41">
-        <v>276.60000000000002</v>
+        <v>266.416</v>
       </c>
       <c r="J41">
-        <v>805.2</v>
+        <v>691.86500000000001</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>818.9</v>
+        <v>572.54399999999998</v>
       </c>
       <c r="O41">
-        <v>2053.6999999999998</v>
+        <v>1759.088</v>
       </c>
       <c r="P41">
-        <v>887.8</v>
+        <v>696.08199999999999</v>
       </c>
       <c r="Q41">
-        <v>-8</v>
+        <v>18.414999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40453</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2049.8000000000002</v>
+        <v>2213.67</v>
       </c>
       <c r="U41">
-        <v>82.6</v>
+        <v>56.994999999999997</v>
       </c>
       <c r="V41">
-        <v>234.3</v>
+        <v>92.828999999999994</v>
       </c>
       <c r="W41">
-        <v>-31.7</v>
+        <v>-18.884</v>
       </c>
       <c r="X41">
-        <v>-226.1</v>
+        <v>-71.725999999999999</v>
       </c>
       <c r="Y41">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>110.8</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>46.375999999999998</v>
+      </c>
+      <c r="D42">
+        <v>753.85799999999995</v>
+      </c>
+      <c r="E42">
+        <v>516.90499999999997</v>
+      </c>
+      <c r="F42">
+        <v>232.22800000000001</v>
+      </c>
+      <c r="G42">
+        <v>1069.297</v>
+      </c>
+      <c r="H42">
+        <v>3973.5329999999999</v>
+      </c>
+      <c r="I42">
+        <v>262.35700000000003</v>
+      </c>
+      <c r="J42">
+        <v>702.52099999999996</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>546.79600000000005</v>
+      </c>
+      <c r="O42">
+        <v>1768.501</v>
+      </c>
+      <c r="P42">
+        <v>707.47199999999998</v>
+      </c>
+      <c r="Q42">
+        <v>-10.939</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>14300</v>
+      </c>
+      <c r="T42">
+        <v>2205.0320000000002</v>
+      </c>
+      <c r="U42">
+        <v>46.055999999999997</v>
+      </c>
+      <c r="V42">
+        <v>21.132999999999999</v>
+      </c>
+      <c r="W42">
+        <v>-18.881</v>
+      </c>
+      <c r="X42">
+        <v>-13.013999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>46.375999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40635</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>50.540999999999997</v>
+      </c>
+      <c r="D43">
+        <v>790.27300000000002</v>
+      </c>
+      <c r="E43">
+        <v>625.85599999999999</v>
+      </c>
+      <c r="F43">
+        <v>249.059</v>
+      </c>
+      <c r="G43">
+        <v>1209.077</v>
+      </c>
+      <c r="H43">
+        <v>4162.6869999999999</v>
+      </c>
+      <c r="I43">
+        <v>256.49200000000002</v>
+      </c>
+      <c r="J43">
+        <v>815.92100000000005</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-150</v>
+      </c>
+      <c r="N43">
+        <v>546.36099999999999</v>
+      </c>
+      <c r="O43">
+        <v>1880.2429999999999</v>
+      </c>
+      <c r="P43">
+        <v>822.02700000000004</v>
+      </c>
+      <c r="Q43">
+        <v>11.077999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40635</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2282.444</v>
+      </c>
+      <c r="U43">
+        <v>57.134</v>
+      </c>
+      <c r="V43">
+        <v>-48.18</v>
+      </c>
+      <c r="W43">
+        <v>-19.844000000000001</v>
+      </c>
+      <c r="X43">
+        <v>80.915000000000006</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>50.540999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40726</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>66.712000000000003</v>
+      </c>
+      <c r="D44">
+        <v>910.17499999999995</v>
+      </c>
+      <c r="E44">
+        <v>635.80700000000002</v>
+      </c>
+      <c r="F44">
+        <v>287.73599999999999</v>
+      </c>
+      <c r="G44">
+        <v>1334.6389999999999</v>
+      </c>
+      <c r="H44">
+        <v>5052.3119999999999</v>
+      </c>
+      <c r="I44">
+        <v>315.40300000000002</v>
+      </c>
+      <c r="J44">
+        <v>1396.6669999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>711.40200000000004</v>
+      </c>
+      <c r="O44">
+        <v>2685.4580000000001</v>
+      </c>
+      <c r="P44">
+        <v>1419.4069999999999</v>
+      </c>
+      <c r="Q44">
+        <v>11.837999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40726</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2366.8539999999998</v>
+      </c>
+      <c r="U44">
+        <v>68.971999999999994</v>
+      </c>
+      <c r="V44">
+        <v>200.791</v>
+      </c>
+      <c r="W44">
+        <v>-19.895</v>
+      </c>
+      <c r="X44">
+        <v>557.40700000000004</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>66.712000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>51.091999999999999</v>
+      </c>
+      <c r="D45">
+        <v>890.54600000000005</v>
+      </c>
+      <c r="E45">
+        <v>612.28800000000001</v>
+      </c>
+      <c r="F45">
+        <v>272.06200000000001</v>
+      </c>
+      <c r="G45">
+        <v>1278.248</v>
+      </c>
+      <c r="H45">
+        <v>4882.4430000000002</v>
+      </c>
+      <c r="I45">
+        <v>281.44799999999998</v>
+      </c>
+      <c r="J45">
+        <v>1327.954</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>717.60199999999998</v>
+      </c>
+      <c r="O45">
+        <v>2584.3270000000002</v>
+      </c>
+      <c r="P45">
+        <v>1358.8530000000001</v>
+      </c>
+      <c r="Q45">
+        <v>-16.306999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40817</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2298.116</v>
+      </c>
+      <c r="U45">
+        <v>52.664999999999999</v>
+      </c>
+      <c r="V45">
+        <v>87.947999999999993</v>
+      </c>
+      <c r="W45">
+        <v>-19.93</v>
+      </c>
+      <c r="X45">
+        <v>-81.421999999999997</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>51.091999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-175.79499999999999</v>
+      </c>
+      <c r="D46">
+        <v>865.69200000000001</v>
+      </c>
+      <c r="E46">
+        <v>623.90499999999997</v>
+      </c>
+      <c r="F46">
+        <v>264.86500000000001</v>
+      </c>
+      <c r="G46">
+        <v>1237.835</v>
+      </c>
+      <c r="H46">
+        <v>4586.3130000000001</v>
+      </c>
+      <c r="I46">
+        <v>294.858</v>
+      </c>
+      <c r="J46">
+        <v>1304.2249999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>641.84100000000001</v>
+      </c>
+      <c r="O46">
+        <v>2538.9209999999998</v>
+      </c>
+      <c r="P46">
+        <v>1309.087</v>
+      </c>
+      <c r="Q46">
+        <v>-2.5880000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>15300</v>
+      </c>
+      <c r="T46">
+        <v>2047.3920000000001</v>
+      </c>
+      <c r="U46">
+        <v>50.076999999999998</v>
+      </c>
+      <c r="V46">
+        <v>79.667000000000002</v>
+      </c>
+      <c r="W46">
+        <v>-19.867999999999999</v>
+      </c>
+      <c r="X46">
+        <v>-53.347000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>-175.79499999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>62</v>
+      </c>
+      <c r="D47">
+        <v>858</v>
+      </c>
+      <c r="E47">
+        <v>680.26</v>
+      </c>
+      <c r="F47">
+        <v>281</v>
+      </c>
+      <c r="G47">
+        <v>1389.2070000000001</v>
+      </c>
+      <c r="H47">
+        <v>4778.2060000000001</v>
+      </c>
+      <c r="I47">
+        <v>293.39800000000002</v>
+      </c>
+      <c r="J47">
+        <v>1380.039</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-13</v>
+      </c>
+      <c r="N47">
+        <v>659.32299999999998</v>
+      </c>
+      <c r="O47">
+        <v>2634.5990000000002</v>
+      </c>
+      <c r="P47">
+        <v>1415.49</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2143.607</v>
+      </c>
+      <c r="U47">
+        <v>55.438000000000002</v>
+      </c>
+      <c r="V47">
+        <v>-68</v>
+      </c>
+      <c r="W47">
+        <v>-22</v>
+      </c>
+      <c r="X47">
+        <v>90</v>
+      </c>
+      <c r="Y47">
+        <v>15.054</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>72.5</v>
+      </c>
+      <c r="D48">
+        <v>941.5</v>
+      </c>
+      <c r="E48">
+        <v>572.14400000000001</v>
+      </c>
+      <c r="F48">
+        <v>312.10000000000002</v>
+      </c>
+      <c r="G48">
+        <v>1276.0250000000001</v>
+      </c>
+      <c r="H48">
+        <v>4586.2690000000002</v>
+      </c>
+      <c r="I48">
+        <v>288.26499999999999</v>
+      </c>
+      <c r="J48">
+        <v>1219.7080000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>661.71600000000001</v>
+      </c>
+      <c r="O48">
+        <v>2468.3969999999999</v>
+      </c>
+      <c r="P48">
+        <v>1235.2090000000001</v>
+      </c>
+      <c r="Q48">
+        <v>5.5</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2117.8719999999998</v>
+      </c>
+      <c r="U48">
+        <v>60.597999999999999</v>
+      </c>
+      <c r="V48">
+        <v>234.8</v>
+      </c>
+      <c r="W48">
+        <v>-22.3</v>
+      </c>
+      <c r="X48">
+        <v>-188.1</v>
+      </c>
+      <c r="Y48">
+        <v>14.086</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>31.4</v>
+      </c>
+      <c r="D49">
+        <v>865.5</v>
+      </c>
+      <c r="E49">
+        <v>1319.5609999999999</v>
+      </c>
+      <c r="F49">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="G49">
+        <v>3740.4459999999999</v>
+      </c>
+      <c r="H49">
+        <v>11972.334999999999</v>
+      </c>
+      <c r="I49">
+        <v>602.70699999999999</v>
+      </c>
+      <c r="J49">
+        <v>1465.8610000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2131.9490000000001</v>
+      </c>
+      <c r="O49">
+        <v>4906.0940000000001</v>
+      </c>
+      <c r="P49">
+        <v>1996.761</v>
+      </c>
+      <c r="Q49">
+        <v>582</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>7066.241</v>
+      </c>
+      <c r="U49">
+        <v>642.57000000000005</v>
+      </c>
+      <c r="V49">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="W49">
+        <v>-21.8</v>
+      </c>
+      <c r="X49">
+        <v>-173.3</v>
+      </c>
+      <c r="Y49">
+        <v>29.507999999999999</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-273.10000000000002</v>
+      </c>
+      <c r="D50">
+        <v>1750.9</v>
+      </c>
+      <c r="E50">
+        <v>1399</v>
+      </c>
+      <c r="F50">
+        <v>578.29999999999995</v>
+      </c>
+      <c r="G50">
+        <v>3204.3</v>
+      </c>
+      <c r="H50">
+        <v>11882.7</v>
+      </c>
+      <c r="I50">
+        <v>567</v>
+      </c>
+      <c r="J50">
+        <v>2454.3000000000002</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1645.1</v>
+      </c>
+      <c r="O50">
+        <v>5395.2</v>
+      </c>
+      <c r="P50">
+        <v>2457.4</v>
+      </c>
+      <c r="Q50">
+        <v>-381.3</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>29700</v>
+      </c>
+      <c r="T50">
+        <v>6487.5</v>
+      </c>
+      <c r="U50">
+        <v>261.3</v>
+      </c>
+      <c r="V50">
+        <v>-179.4</v>
+      </c>
+      <c r="W50">
+        <v>-46.3</v>
+      </c>
+      <c r="X50">
+        <v>39.1</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>-273.10000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>51.7</v>
+      </c>
+      <c r="D51">
+        <v>1774.5</v>
+      </c>
+      <c r="E51">
+        <v>1542</v>
+      </c>
+      <c r="F51">
+        <v>600.6</v>
+      </c>
+      <c r="G51">
+        <v>3290</v>
+      </c>
+      <c r="H51">
+        <v>11721</v>
+      </c>
+      <c r="I51">
+        <v>580</v>
+      </c>
+      <c r="J51">
+        <v>2573</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-1.7</v>
+      </c>
+      <c r="N51">
+        <v>1483</v>
+      </c>
+      <c r="O51">
+        <v>5378</v>
+      </c>
+      <c r="P51">
+        <v>2598</v>
+      </c>
+      <c r="Q51">
+        <v>-46.8</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>6343</v>
+      </c>
+      <c r="U51">
+        <v>215</v>
+      </c>
+      <c r="V51">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="W51">
+        <v>-47.2</v>
+      </c>
+      <c r="X51">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="Y51">
+        <v>19</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1439.9</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>3216.5</v>
+      </c>
+      <c r="H52">
+        <v>11666.6</v>
+      </c>
+      <c r="I52">
+        <v>593.9</v>
+      </c>
+      <c r="J52">
+        <v>2717.1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1686.8</v>
+      </c>
+      <c r="O52">
+        <v>5723.7</v>
+      </c>
+      <c r="P52">
+        <v>2740.3</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>5942.9</v>
+      </c>
+      <c r="U52">
+        <v>253.1</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>20.3</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1713.3</v>
+      </c>
+      <c r="E53">
+        <v>1441.9</v>
+      </c>
+      <c r="F53">
+        <v>614.70000000000005</v>
+      </c>
+      <c r="G53">
+        <v>3211.3</v>
+      </c>
+      <c r="H53">
+        <v>11804.2</v>
+      </c>
+      <c r="I53">
+        <v>579.4</v>
+      </c>
+      <c r="J53">
+        <v>2551.6999999999998</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1678.4</v>
+      </c>
+      <c r="O53">
+        <v>5602.5</v>
+      </c>
+      <c r="P53">
+        <v>2573.6999999999998</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>6201.7</v>
+      </c>
+      <c r="U53">
+        <v>237.7</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>19</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="D54">
+        <v>1831</v>
+      </c>
+      <c r="E54">
+        <v>1376.6</v>
+      </c>
+      <c r="F54">
+        <v>630.5</v>
+      </c>
+      <c r="G54">
+        <v>3232.1</v>
+      </c>
+      <c r="H54">
+        <v>11743.3</v>
+      </c>
+      <c r="I54">
+        <v>576.9</v>
+      </c>
+      <c r="J54">
+        <v>2528.9</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1610.2</v>
+      </c>
+      <c r="O54">
+        <v>5525.6</v>
+      </c>
+      <c r="P54">
+        <v>2550.4</v>
+      </c>
+      <c r="Q54">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>28600</v>
+      </c>
+      <c r="T54">
+        <v>6217.7</v>
+      </c>
+      <c r="U54">
+        <v>256</v>
+      </c>
+      <c r="V54">
+        <v>293.89999999999998</v>
+      </c>
+      <c r="W54">
+        <v>-50.3</v>
+      </c>
+      <c r="X54">
+        <v>-226</v>
+      </c>
+      <c r="Y54">
+        <v>19</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>158.19999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>118.6</v>
+      </c>
+      <c r="D55">
+        <v>1644</v>
+      </c>
+      <c r="E55">
+        <v>1519.4</v>
+      </c>
+      <c r="F55">
+        <v>564.1</v>
+      </c>
+      <c r="G55">
+        <v>3305.3</v>
+      </c>
+      <c r="H55">
+        <v>11766.5</v>
+      </c>
+      <c r="I55">
+        <v>575.4</v>
+      </c>
+      <c r="J55">
+        <v>2915</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-0.9</v>
+      </c>
+      <c r="N55">
+        <v>1528.1</v>
+      </c>
+      <c r="O55">
+        <v>5830.2</v>
+      </c>
+      <c r="P55">
+        <v>2936.6</v>
+      </c>
+      <c r="Q55">
+        <v>-52.1</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>5936.3</v>
+      </c>
+      <c r="U55">
+        <v>211.1</v>
+      </c>
+      <c r="V55">
+        <v>2.5</v>
+      </c>
+      <c r="W55">
+        <v>-49.2</v>
+      </c>
+      <c r="X55">
+        <v>-24.7</v>
+      </c>
+      <c r="Y55">
+        <v>18.8</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>118.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>161.5</v>
+      </c>
+      <c r="D56">
+        <v>1834.1</v>
+      </c>
+      <c r="E56">
+        <v>1418.1</v>
+      </c>
+      <c r="F56">
+        <v>646.29999999999995</v>
+      </c>
+      <c r="G56">
+        <v>3165.9</v>
+      </c>
+      <c r="H56">
+        <v>11616.8</v>
+      </c>
+      <c r="I56">
+        <v>587</v>
+      </c>
+      <c r="J56">
+        <v>2731.4</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1777.1</v>
+      </c>
+      <c r="O56">
+        <v>5898</v>
+      </c>
+      <c r="P56">
+        <v>2745.1</v>
+      </c>
+      <c r="Q56">
+        <v>-39.4</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>5718.8</v>
+      </c>
+      <c r="U56">
+        <v>174.4</v>
+      </c>
+      <c r="V56">
+        <v>412</v>
+      </c>
+      <c r="W56">
+        <v>-49.9</v>
+      </c>
+      <c r="X56">
+        <v>-430.7</v>
+      </c>
+      <c r="Y56">
+        <v>7.6</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>161.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-186</v>
+      </c>
+      <c r="D57">
+        <v>1758.4</v>
+      </c>
+      <c r="E57">
+        <v>1289.2</v>
+      </c>
+      <c r="F57">
+        <v>624.70000000000005</v>
+      </c>
+      <c r="G57">
+        <v>3052.4</v>
+      </c>
+      <c r="H57">
+        <v>10926.9</v>
+      </c>
+      <c r="I57">
+        <v>527.20000000000005</v>
+      </c>
+      <c r="J57">
+        <v>2953.6</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1668.7</v>
+      </c>
+      <c r="O57">
+        <v>5959.5</v>
+      </c>
+      <c r="P57">
+        <v>2963.2</v>
+      </c>
+      <c r="Q57">
+        <v>-7.9</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4967.3999999999996</v>
+      </c>
+      <c r="U57">
+        <v>156.6</v>
+      </c>
+      <c r="V57">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="W57">
+        <v>-57.1</v>
+      </c>
+      <c r="X57">
+        <v>-231.9</v>
+      </c>
+      <c r="Y57">
+        <v>7.1</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>-186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>120.8</v>
+      </c>
+      <c r="D58">
+        <v>1802.5</v>
+      </c>
+      <c r="E58">
+        <v>1309.4000000000001</v>
+      </c>
+      <c r="F58">
+        <v>627.9</v>
+      </c>
+      <c r="G58">
+        <v>2894.1</v>
+      </c>
+      <c r="H58">
+        <v>10655.2</v>
+      </c>
+      <c r="I58">
+        <v>583.1</v>
+      </c>
+      <c r="J58">
+        <v>2997.4</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1639.5</v>
+      </c>
+      <c r="O58">
+        <v>5991.4</v>
+      </c>
+      <c r="P58">
+        <v>3004.1</v>
+      </c>
+      <c r="Q58">
+        <v>-46.2</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>28400</v>
+      </c>
+      <c r="T58">
+        <v>4663.8</v>
+      </c>
+      <c r="U58">
+        <v>110.4</v>
+      </c>
+      <c r="V58">
+        <v>325</v>
+      </c>
+      <c r="W58">
+        <v>-55.2</v>
+      </c>
+      <c r="X58">
+        <v>-307.8</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42091</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>113.9</v>
+      </c>
+      <c r="D59">
+        <v>1475</v>
+      </c>
+      <c r="E59">
+        <v>1356.4</v>
+      </c>
+      <c r="F59">
+        <v>510.2</v>
+      </c>
+      <c r="G59">
+        <v>2976.9</v>
+      </c>
+      <c r="H59">
+        <v>10569.4</v>
+      </c>
+      <c r="I59">
+        <v>504.9</v>
+      </c>
+      <c r="J59">
+        <v>3403.4</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-0.4</v>
+      </c>
+      <c r="N59">
+        <v>1431.1</v>
+      </c>
+      <c r="O59">
+        <v>6146.1</v>
+      </c>
+      <c r="P59">
+        <v>3409</v>
+      </c>
+      <c r="Q59">
+        <v>20.7</v>
+      </c>
+      <c r="R59">
+        <v>42091</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4423.3</v>
+      </c>
+      <c r="U59">
+        <v>131.1</v>
+      </c>
+      <c r="V59">
+        <v>-133.19999999999999</v>
+      </c>
+      <c r="W59">
+        <v>-57.5</v>
+      </c>
+      <c r="X59">
+        <v>159.6</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="D60">
+        <v>739.6</v>
+      </c>
+      <c r="E60">
+        <v>1287</v>
+      </c>
+      <c r="F60">
+        <v>261.39999999999998</v>
+      </c>
+      <c r="G60">
+        <v>2902.9</v>
+      </c>
+      <c r="H60">
+        <v>10564.7</v>
+      </c>
+      <c r="I60">
+        <v>525.9</v>
+      </c>
+      <c r="J60">
+        <v>3260.9</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1460</v>
+      </c>
+      <c r="O60">
+        <v>6012.6</v>
+      </c>
+      <c r="P60">
+        <v>3266.2</v>
+      </c>
+      <c r="Q60">
+        <v>16.2</v>
+      </c>
+      <c r="R60">
+        <v>42182</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4552.1000000000004</v>
+      </c>
+      <c r="U60">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="V60">
+        <v>318.7</v>
+      </c>
+      <c r="W60">
+        <v>-58.1</v>
+      </c>
+      <c r="X60">
+        <v>-194.5</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>147.80000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42273</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>115.2</v>
+      </c>
+      <c r="D61">
+        <v>1112.8</v>
+      </c>
+      <c r="E61">
+        <v>1262.0999999999999</v>
+      </c>
+      <c r="F61">
+        <v>394.7</v>
+      </c>
+      <c r="G61">
+        <v>2964.2</v>
+      </c>
+      <c r="H61">
+        <v>12670.9</v>
+      </c>
+      <c r="I61">
+        <v>531</v>
+      </c>
+      <c r="J61">
+        <v>4983.2</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1496.2</v>
+      </c>
+      <c r="O61">
+        <v>8135</v>
+      </c>
+      <c r="P61">
+        <v>4986.3999999999996</v>
+      </c>
+      <c r="Q61">
+        <v>-2.4</v>
+      </c>
+      <c r="R61">
+        <v>42273</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4535.8999999999996</v>
+      </c>
+      <c r="U61">
+        <v>144.9</v>
+      </c>
+      <c r="V61">
+        <v>210.4</v>
+      </c>
+      <c r="W61">
+        <v>-57.7</v>
+      </c>
+      <c r="X61">
+        <v>1647.4</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-453.3</v>
+      </c>
+      <c r="D62">
+        <v>1289</v>
+      </c>
+      <c r="E62">
+        <v>887.6</v>
+      </c>
+      <c r="F62">
+        <v>468.2</v>
+      </c>
+      <c r="G62">
+        <v>2777.6</v>
+      </c>
+      <c r="H62">
+        <v>11833.5</v>
+      </c>
+      <c r="I62">
+        <v>403.8</v>
+      </c>
+      <c r="J62">
+        <v>4685.8</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1486.5</v>
+      </c>
+      <c r="O62">
+        <v>7824.7</v>
+      </c>
+      <c r="P62">
+        <v>4685.8</v>
+      </c>
+      <c r="Q62">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>27600</v>
+      </c>
+      <c r="T62">
+        <v>4008.8</v>
+      </c>
+      <c r="U62">
+        <v>126.3</v>
+      </c>
+      <c r="V62">
+        <v>343.4</v>
+      </c>
+      <c r="W62">
+        <v>-58.4</v>
+      </c>
+      <c r="X62">
+        <v>-326.2</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>-453.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>107.4</v>
+      </c>
+      <c r="D63">
+        <v>1190</v>
+      </c>
+      <c r="E63">
+        <v>1390.9</v>
+      </c>
+      <c r="F63">
+        <v>431.3</v>
+      </c>
+      <c r="G63">
+        <v>3005.9</v>
+      </c>
+      <c r="H63">
+        <v>12030.2</v>
+      </c>
+      <c r="I63">
+        <v>579</v>
+      </c>
+      <c r="J63">
+        <v>4837.1000000000004</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-0.7</v>
+      </c>
+      <c r="N63">
+        <v>1467.6</v>
+      </c>
+      <c r="O63">
+        <v>7946</v>
+      </c>
+      <c r="P63">
+        <v>4837.8</v>
+      </c>
+      <c r="Q63">
+        <v>31.8</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4084.2</v>
+      </c>
+      <c r="U63">
+        <v>158.1</v>
+      </c>
+      <c r="V63">
+        <v>-15</v>
+      </c>
+      <c r="W63">
+        <v>-60.1</v>
+      </c>
+      <c r="X63">
+        <v>77.2</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="D64">
+        <v>1301.2</v>
+      </c>
+      <c r="E64">
+        <v>1222.0999999999999</v>
+      </c>
+      <c r="F64">
+        <v>481.8</v>
+      </c>
+      <c r="G64">
+        <v>2792.8</v>
+      </c>
+      <c r="H64">
+        <v>11743.8</v>
+      </c>
+      <c r="I64">
+        <v>531.70000000000005</v>
+      </c>
+      <c r="J64">
+        <v>4551.7</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1415.9</v>
+      </c>
+      <c r="O64">
+        <v>7577.5</v>
+      </c>
+      <c r="P64">
+        <v>4551.7</v>
+      </c>
+      <c r="Q64">
+        <v>15.2</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4166.3</v>
+      </c>
+      <c r="U64">
+        <v>173.3</v>
+      </c>
+      <c r="V64">
+        <v>384.5</v>
+      </c>
+      <c r="W64">
+        <v>-59.6</v>
+      </c>
+      <c r="X64">
+        <v>-325.89999999999998</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>142.80000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>141</v>
+      </c>
+      <c r="D65">
+        <v>1210.7</v>
+      </c>
+      <c r="E65">
+        <v>824.1</v>
+      </c>
+      <c r="F65">
+        <v>440.9</v>
+      </c>
+      <c r="G65">
+        <v>2747</v>
+      </c>
+      <c r="H65">
+        <v>11679</v>
+      </c>
+      <c r="I65">
+        <v>348.2</v>
+      </c>
+      <c r="J65">
+        <v>4411.3</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1288.0999999999999</v>
+      </c>
+      <c r="O65">
+        <v>7323.7</v>
+      </c>
+      <c r="P65">
+        <v>4411.3</v>
+      </c>
+      <c r="Q65">
+        <v>-2.4</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4355.3</v>
+      </c>
+      <c r="U65">
+        <v>170.9</v>
+      </c>
+      <c r="V65">
+        <v>187.3</v>
+      </c>
+      <c r="W65">
+        <v>-61.9</v>
+      </c>
+      <c r="X65">
+        <v>-195.8</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>131</v>
+      </c>
+      <c r="D66">
+        <v>1188.0999999999999</v>
+      </c>
+      <c r="E66">
+        <v>871.7</v>
+      </c>
+      <c r="F66">
+        <v>440.1</v>
+      </c>
+      <c r="G66">
+        <v>2672</v>
+      </c>
+      <c r="H66">
+        <v>11534.8</v>
+      </c>
+      <c r="I66">
+        <v>436.6</v>
+      </c>
+      <c r="J66">
+        <v>4278.3999999999996</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1471.2</v>
+      </c>
+      <c r="O66">
+        <v>7280.4</v>
+      </c>
+      <c r="P66">
+        <v>4279.2</v>
+      </c>
+      <c r="Q66">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>26000</v>
+      </c>
+      <c r="T66">
+        <v>4254.3999999999996</v>
+      </c>
+      <c r="U66">
+        <v>238.5</v>
+      </c>
+      <c r="V66">
+        <v>304.60000000000002</v>
+      </c>
+      <c r="W66">
+        <v>-62</v>
+      </c>
+      <c r="X66">
+        <v>-155.6</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>87.8</v>
+      </c>
+      <c r="D67">
+        <v>683.3</v>
+      </c>
+      <c r="E67">
+        <v>1033.5999999999999</v>
+      </c>
+      <c r="F67">
+        <v>223.7</v>
+      </c>
+      <c r="G67">
+        <v>2841.1</v>
+      </c>
+      <c r="H67">
+        <v>11818</v>
+      </c>
+      <c r="I67">
+        <v>387.3</v>
+      </c>
+      <c r="J67">
+        <v>4528.8999999999996</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>-0.1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1397.6</v>
+      </c>
+      <c r="O67">
+        <v>7443.2</v>
+      </c>
+      <c r="P67">
+        <v>4529.6000000000004</v>
+      </c>
+      <c r="Q67">
+        <v>-0.4</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4374.8</v>
+      </c>
+      <c r="U67">
+        <v>238.1</v>
+      </c>
+      <c r="V67">
+        <v>-106</v>
+      </c>
+      <c r="W67">
+        <v>-62.8</v>
+      </c>
+      <c r="X67">
+        <v>169</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>263.7</v>
+      </c>
+      <c r="D68">
+        <v>754</v>
+      </c>
+      <c r="E68">
+        <v>878.1</v>
+      </c>
+      <c r="F68">
+        <v>273.60000000000002</v>
+      </c>
+      <c r="G68">
+        <v>1754.8</v>
+      </c>
+      <c r="H68">
+        <v>8669.1</v>
+      </c>
+      <c r="I68">
+        <v>407.8</v>
+      </c>
+      <c r="J68">
+        <v>1698.9</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1048.4000000000001</v>
+      </c>
+      <c r="O68">
+        <v>3765.6</v>
+      </c>
+      <c r="P68">
+        <v>1699.2</v>
+      </c>
+      <c r="Q68">
+        <v>-74.8</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4903.5</v>
+      </c>
+      <c r="U68">
+        <v>177.8</v>
+      </c>
+      <c r="V68">
+        <v>261.3</v>
+      </c>
+      <c r="W68">
+        <v>-63.3</v>
+      </c>
+      <c r="X68">
+        <v>-3095.8</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>263.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>125.4</v>
+      </c>
+      <c r="D69">
+        <v>687.6</v>
+      </c>
+      <c r="E69">
+        <v>896.7</v>
+      </c>
+      <c r="F69">
+        <v>236.5</v>
+      </c>
+      <c r="G69">
+        <v>1705.8</v>
+      </c>
+      <c r="H69">
+        <v>8628.7999999999993</v>
+      </c>
+      <c r="I69">
+        <v>383.4</v>
+      </c>
+      <c r="J69">
+        <v>1503.4</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1072.5999999999999</v>
+      </c>
+      <c r="O69">
+        <v>3620.2</v>
+      </c>
+      <c r="P69">
+        <v>1503.4</v>
+      </c>
+      <c r="Q69">
+        <v>-60.4</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5008.6000000000004</v>
+      </c>
+      <c r="U69">
+        <v>108.5</v>
+      </c>
+      <c r="V69">
+        <v>206.5</v>
+      </c>
+      <c r="W69">
+        <v>-62.8</v>
+      </c>
+      <c r="X69">
+        <v>-275.10000000000002</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>189.6</v>
+      </c>
+      <c r="D70">
+        <v>720.8</v>
+      </c>
+      <c r="E70">
+        <v>534.6</v>
+      </c>
+      <c r="F70">
+        <v>253.7</v>
+      </c>
+      <c r="G70">
+        <v>1748.8</v>
+      </c>
+      <c r="H70">
+        <v>8633.7000000000007</v>
+      </c>
+      <c r="I70">
+        <v>321.5</v>
+      </c>
+      <c r="J70">
+        <v>1440.7</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1199.4000000000001</v>
+      </c>
+      <c r="O70">
+        <v>3595.9</v>
+      </c>
+      <c r="P70">
+        <v>1440.7</v>
+      </c>
+      <c r="Q70">
+        <v>5</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>18400</v>
+      </c>
+      <c r="T70">
+        <v>5037.8</v>
+      </c>
+      <c r="U70">
+        <v>86.3</v>
+      </c>
+      <c r="V70">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="W70">
+        <v>-62.8</v>
+      </c>
+      <c r="X70">
+        <v>-230.7</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>189.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>102.9</v>
+      </c>
+      <c r="D71">
+        <v>732.6</v>
+      </c>
+      <c r="E71">
+        <v>1103.2</v>
+      </c>
+      <c r="F71">
+        <v>253.3</v>
+      </c>
+      <c r="G71">
+        <v>2719</v>
+      </c>
+      <c r="H71">
+        <v>9368.1</v>
+      </c>
+      <c r="I71">
+        <v>404</v>
+      </c>
+      <c r="J71">
+        <v>2673.1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1027.5</v>
+      </c>
+      <c r="O71">
+        <v>4648.3999999999996</v>
+      </c>
+      <c r="P71">
+        <v>2673.3</v>
+      </c>
+      <c r="Q71">
+        <v>-15.5</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4719.7</v>
+      </c>
+      <c r="U71">
+        <v>907.5</v>
+      </c>
+      <c r="V71">
+        <v>-167.6</v>
+      </c>
+      <c r="W71">
+        <v>-63.3</v>
+      </c>
+      <c r="X71">
+        <v>997.8</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>41.5</v>
+      </c>
+      <c r="D72">
+        <v>780.6</v>
+      </c>
+      <c r="E72">
+        <v>471.4</v>
+      </c>
+      <c r="F72">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="G72">
+        <v>996.6</v>
+      </c>
+      <c r="H72">
+        <v>3806</v>
+      </c>
+      <c r="I72">
+        <v>275.10000000000002</v>
+      </c>
+      <c r="J72">
+        <v>779.9</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>709.4</v>
+      </c>
+      <c r="O72">
+        <v>1917.1</v>
+      </c>
+      <c r="P72">
+        <v>779.9</v>
+      </c>
+      <c r="Q72">
+        <v>7.9</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1888.9</v>
+      </c>
+      <c r="U72">
+        <v>78.7</v>
+      </c>
+      <c r="V72">
+        <v>339.5</v>
+      </c>
+      <c r="W72">
+        <v>-62.6</v>
+      </c>
+      <c r="X72">
+        <v>-1158.9000000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>110.1</v>
+      </c>
+      <c r="D73">
+        <v>711.4</v>
+      </c>
+      <c r="E73">
+        <v>447.2</v>
+      </c>
+      <c r="F73">
+        <v>243.8</v>
+      </c>
+      <c r="G73">
+        <v>989.6</v>
+      </c>
+      <c r="H73">
+        <v>3809.5</v>
+      </c>
+      <c r="I73">
+        <v>261.3</v>
+      </c>
+      <c r="J73">
+        <v>798.8</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>707.4</v>
+      </c>
+      <c r="O73">
+        <v>1929.3</v>
+      </c>
+      <c r="P73">
+        <v>798.8</v>
+      </c>
+      <c r="Q73">
+        <v>-14</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1880.2</v>
+      </c>
+      <c r="U73">
+        <v>64.7</v>
+      </c>
+      <c r="V73">
+        <v>112.7</v>
+      </c>
+      <c r="W73">
+        <v>-30.8</v>
+      </c>
+      <c r="X73">
+        <v>-107.3</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>110.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>92.9</v>
+      </c>
+      <c r="D74">
+        <v>740.5</v>
+      </c>
+      <c r="E74">
+        <v>524.70000000000005</v>
+      </c>
+      <c r="F74">
+        <v>268</v>
+      </c>
+      <c r="G74">
+        <v>1039.4000000000001</v>
+      </c>
+      <c r="H74">
+        <v>3806.5</v>
+      </c>
+      <c r="I74">
+        <v>378.6</v>
+      </c>
+      <c r="J74">
+        <v>787.6</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>818.7</v>
+      </c>
+      <c r="O74">
+        <v>1970.4</v>
+      </c>
+      <c r="P74">
+        <v>787.6</v>
+      </c>
+      <c r="Q74">
+        <v>9.6</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>10000</v>
+      </c>
+      <c r="T74">
+        <v>1836.1</v>
+      </c>
+      <c r="U74">
+        <v>74.3</v>
+      </c>
+      <c r="V74">
+        <v>154.5</v>
+      </c>
+      <c r="W74">
+        <v>-30.5</v>
+      </c>
+      <c r="X74">
+        <v>-139.5</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>51.3</v>
+      </c>
+      <c r="D75">
+        <v>688.9</v>
+      </c>
+      <c r="E75">
+        <v>684.1</v>
+      </c>
+      <c r="F75">
+        <v>235.6</v>
+      </c>
+      <c r="G75">
+        <v>1251.5999999999999</v>
+      </c>
+      <c r="H75">
+        <v>4382.2</v>
+      </c>
+      <c r="I75">
+        <v>265.3</v>
+      </c>
+      <c r="J75">
+        <v>1370.7</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>705.3</v>
+      </c>
+      <c r="O75">
+        <v>2511.8000000000002</v>
+      </c>
+      <c r="P75">
+        <v>1448.3</v>
+      </c>
+      <c r="Q75">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1870.4</v>
+      </c>
+      <c r="U75">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="V75">
+        <v>-256.3</v>
+      </c>
+      <c r="W75">
+        <v>-31</v>
+      </c>
+      <c r="X75">
+        <v>559</v>
+      </c>
+      <c r="Y75">
+        <v>57.7</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>114.3</v>
+      </c>
+      <c r="D76">
+        <v>799.5</v>
+      </c>
+      <c r="E76">
+        <v>503.1</v>
+      </c>
+      <c r="F76">
+        <v>286.7</v>
+      </c>
+      <c r="G76">
+        <v>1041.5</v>
+      </c>
+      <c r="H76">
+        <v>4170</v>
+      </c>
+      <c r="I76">
+        <v>261.7</v>
+      </c>
+      <c r="J76">
+        <v>1215.0999999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>710.2</v>
+      </c>
+      <c r="O76">
+        <v>2363.4</v>
+      </c>
+      <c r="P76">
+        <v>1297</v>
+      </c>
+      <c r="Q76">
+        <v>1.6</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1806.6</v>
+      </c>
+      <c r="U76">
+        <v>80.5</v>
+      </c>
+      <c r="V76">
+        <v>353</v>
+      </c>
+      <c r="W76">
+        <v>-31</v>
+      </c>
+      <c r="X76">
+        <v>-336.6</v>
+      </c>
+      <c r="Y76">
+        <v>62.1</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>114.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>92.3</v>
+      </c>
+      <c r="D77">
+        <v>713.6</v>
+      </c>
+      <c r="E77">
+        <v>441.3</v>
+      </c>
+      <c r="F77">
+        <v>255</v>
+      </c>
+      <c r="G77">
+        <v>1002.6</v>
+      </c>
+      <c r="H77">
+        <v>4080.4</v>
+      </c>
+      <c r="I77">
+        <v>253.4</v>
+      </c>
+      <c r="J77">
+        <v>1118.7</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>694.2</v>
+      </c>
+      <c r="O77">
+        <v>2211.6</v>
+      </c>
+      <c r="P77">
+        <v>1201.5</v>
+      </c>
+      <c r="Q77">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1868.8</v>
+      </c>
+      <c r="U77">
+        <v>113.2</v>
+      </c>
+      <c r="V77">
+        <v>168</v>
+      </c>
+      <c r="W77">
+        <v>-30.4</v>
+      </c>
+      <c r="X77">
+        <v>-124.6</v>
+      </c>
+      <c r="Y77">
+        <v>63</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
         <v>103</v>
       </c>
-      <c r="D42">
+      <c r="C78">
+        <v>97.8</v>
+      </c>
+      <c r="D78">
+        <v>755.2</v>
+      </c>
+      <c r="E78">
+        <v>543.9</v>
+      </c>
+      <c r="F78">
+        <v>274.2</v>
+      </c>
+      <c r="G78">
+        <v>1061.9000000000001</v>
+      </c>
+      <c r="H78">
+        <v>4139.5</v>
+      </c>
+      <c r="I78">
+        <v>325.10000000000002</v>
+      </c>
+      <c r="J78">
+        <v>1029.0999999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>749</v>
+      </c>
+      <c r="O78">
+        <v>2185.6</v>
+      </c>
+      <c r="P78">
+        <v>1109.2</v>
+      </c>
+      <c r="Q78">
+        <v>-30.7</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>9500</v>
+      </c>
+      <c r="T78">
+        <v>1953.9</v>
+      </c>
+      <c r="U78">
+        <v>82.5</v>
+      </c>
+      <c r="V78">
+        <v>88.3</v>
+      </c>
+      <c r="W78">
+        <v>-30.3</v>
+      </c>
+      <c r="X78">
+        <v>-114.9</v>
+      </c>
+      <c r="Y78">
+        <v>61.1</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>72.7</v>
+      </c>
+      <c r="D79">
+        <v>710</v>
+      </c>
+      <c r="E79">
+        <v>710.5</v>
+      </c>
+      <c r="F79">
+        <v>251.6</v>
+      </c>
+      <c r="G79">
+        <v>1339.6</v>
+      </c>
+      <c r="H79">
+        <v>4426.7</v>
+      </c>
+      <c r="I79">
+        <v>268.2</v>
+      </c>
+      <c r="J79">
+        <v>1450.5</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>682.8</v>
+      </c>
+      <c r="O79">
+        <v>2534.1999999999998</v>
+      </c>
+      <c r="P79">
+        <v>1533.5</v>
+      </c>
+      <c r="Q79">
+        <v>86.8</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1892.5</v>
+      </c>
+      <c r="U79">
+        <v>169.3</v>
+      </c>
+      <c r="V79">
+        <v>-162.4</v>
+      </c>
+      <c r="W79">
+        <v>-32.1</v>
+      </c>
+      <c r="X79">
+        <v>278.8</v>
+      </c>
+      <c r="Y79">
+        <v>64.2</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>713.3</v>
+      </c>
+      <c r="E80">
+        <v>451.3</v>
+      </c>
+      <c r="F80">
+        <v>245.1</v>
+      </c>
+      <c r="G80">
+        <v>1001.7</v>
+      </c>
+      <c r="H80">
+        <v>4116.1000000000004</v>
+      </c>
+      <c r="I80">
+        <v>256</v>
+      </c>
+      <c r="J80">
+        <v>1013</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>750.6</v>
+      </c>
+      <c r="O80">
+        <v>2166.4</v>
+      </c>
+      <c r="P80">
+        <v>1098</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>1949.7</v>
+      </c>
+      <c r="U80">
+        <v>90.6</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>64.8</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>110.8</v>
+      </c>
+      <c r="D81">
+        <v>798.5</v>
+      </c>
+      <c r="E81">
+        <v>417.7</v>
+      </c>
+      <c r="F81">
+        <v>280</v>
+      </c>
+      <c r="G81">
+        <v>963.5</v>
+      </c>
+      <c r="H81">
+        <v>4103.5</v>
+      </c>
+      <c r="I81">
+        <v>276.60000000000002</v>
+      </c>
+      <c r="J81">
+        <v>805.2</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>818.9</v>
+      </c>
+      <c r="O81">
+        <v>2053.6999999999998</v>
+      </c>
+      <c r="P81">
+        <v>887.8</v>
+      </c>
+      <c r="Q81">
+        <v>-8</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2049.8000000000002</v>
+      </c>
+      <c r="U81">
+        <v>82.6</v>
+      </c>
+      <c r="V81">
+        <v>234.3</v>
+      </c>
+      <c r="W81">
+        <v>-31.7</v>
+      </c>
+      <c r="X81">
+        <v>-226.1</v>
+      </c>
+      <c r="Y81">
+        <v>62.4</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>103</v>
+      </c>
+      <c r="D82">
         <v>796</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>417.6</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>285.5</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>975.1</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>4197.2</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>245.1</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>839.6</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>772.5</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>2090.9</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>926.8</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-0.5</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>9750</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2106.3000000000002</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>82.1</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>73.3</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-31.7</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-21.1</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>65.099999999999994</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>103</v>
       </c>
     </row>
